--- a/Tables/aq_hmf_metrics_outlet_30_90.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_30_90.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U76"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,7 +543,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -565,10 +565,10 @@
         <v>10.41379310344828</v>
       </c>
       <c r="H2" t="n">
-        <v>236.9230769230769</v>
+        <v>210.125</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1337775275806302</v>
+        <v>0.1183384125960825</v>
       </c>
       <c r="J2" t="n">
         <v>0.206001660993408</v>
@@ -612,65 +612,65 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.319951965790253</v>
+        <v>0.4281538539702023</v>
       </c>
       <c r="C3" t="n">
-        <v>65.56712314085414</v>
+        <v>64.21272349936143</v>
       </c>
       <c r="D3" t="n">
-        <v>28.13674182713478</v>
+        <v>27.27709598243039</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1519141333777354</v>
+        <v>0.2114528470655924</v>
       </c>
       <c r="F3" t="n">
-        <v>66.19057142857143</v>
+        <v>73.3335</v>
       </c>
       <c r="G3" t="n">
-        <v>4.320786754712649</v>
+        <v>5.117337164750959</v>
       </c>
       <c r="H3" t="n">
-        <v>204.1768833226854</v>
+        <v>193.209211366539</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07141943980315912</v>
+        <v>0.07867737846990068</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1048045972776351</v>
+        <v>0.1596208212879016</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1201746257348131</v>
+        <v>0.1907015132474409</v>
       </c>
       <c r="L3" t="n">
-        <v>0.101585156450842</v>
+        <v>0.145366317212196</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08023135491270174</v>
+        <v>0.09411009977471305</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07710045375106227</v>
+        <v>0.09505867481579883</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0473054859294461</v>
+        <v>0.06869805089657077</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01660442723890717</v>
+        <v>0.02905774766808754</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02209337325011548</v>
+        <v>0.03866340318770208</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04398809202513256</v>
+        <v>0.07652593292404103</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03487421119861978</v>
+        <v>0.05914294820754701</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04070204997397236</v>
+        <v>0.06646539612491593</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -681,11 +681,11 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1081854431977361</v>
+        <v>0.1102983747984199</v>
       </c>
       <c r="C4" t="n">
         <v>36.13793103448276</v>
@@ -700,22 +700,22 @@
         <v>26.667</v>
       </c>
       <c r="G4" t="n">
-        <v>1.692307692307692</v>
+        <v>2.125</v>
       </c>
       <c r="H4" t="n">
         <v>175.625</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0021162878474976</v>
+        <v>0.03241712598768001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0181710660927168</v>
+        <v>0.09007475636073602</v>
       </c>
       <c r="K4" t="n">
-        <v>0.009777405546610036</v>
+        <v>0.025001672010624</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01454959657537034</v>
+        <v>0.028074454393104</v>
       </c>
       <c r="M4" t="n">
         <v>0.008433489824097883</v>
@@ -724,22 +724,22 @@
         <v>0.005820274457370948</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004672347649431882</v>
+        <v>0.013104470269548</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.007276523437108801</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.0106460987340672</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.0204778373220288</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.011254247512704</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.00443931132865248</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -750,65 +750,65 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04036691735965275</v>
+        <v>1.063234941638582</v>
       </c>
       <c r="C5" t="n">
-        <v>115.7777777777778</v>
+        <v>134.75</v>
       </c>
       <c r="D5" t="n">
-        <v>19.62006172839506</v>
+        <v>70.1875</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01333982278775678</v>
+        <v>0.5380468165031904</v>
       </c>
       <c r="F5" t="n">
-        <v>93.333</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>8.071428571428571</v>
+        <v>7.482758620689655</v>
       </c>
       <c r="H5" t="n">
-        <v>228.4090909090909</v>
+        <v>262.0833333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0086669938725552</v>
+        <v>0.7256946755112968</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006469025352892384</v>
+        <v>0.3397843263826851</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01466540294358869</v>
+        <v>0.3569582265345533</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01782623874501383</v>
+        <v>0.2599895445507014</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00480546582490273</v>
+        <v>0.1754765534281536</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00638870777281728</v>
+        <v>0.1673066221540762</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01508540132494983</v>
+        <v>0.132207233842535</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01973886277037333</v>
+        <v>0.04342243443855408</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02215136489781538</v>
+        <v>0.09174902955954624</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01593103977437813</v>
+        <v>0.1901405117271341</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01341593292867072</v>
+        <v>0.1576083966887808</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01019942394148224</v>
+        <v>0.0418863519818472</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -819,65 +819,65 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02488916920850227</v>
+        <v>0.1729726596072752</v>
       </c>
       <c r="C6" t="n">
-        <v>65.46951659451661</v>
+        <v>60.34139366907346</v>
       </c>
       <c r="D6" t="n">
-        <v>13.93142315136363</v>
+        <v>23.20165004203044</v>
       </c>
       <c r="E6" t="n">
-        <v>0.006388310887323626</v>
+        <v>0.06814265482384496</v>
       </c>
       <c r="F6" t="n">
-        <v>64.68375</v>
+        <v>68.23535294117647</v>
       </c>
       <c r="G6" t="n">
-        <v>5.498917748917749</v>
+        <v>3.852549175819525</v>
       </c>
       <c r="H6" t="n">
-        <v>187.0685425685426</v>
+        <v>211.3673029267245</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003928863923123826</v>
+        <v>0.0874233371307296</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004002973317750376</v>
+        <v>0.06457455888386968</v>
       </c>
       <c r="K6" t="n">
-        <v>0.004715370971671452</v>
+        <v>0.05639027812020152</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005913750275658777</v>
+        <v>0.04539217988688627</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002907168441093123</v>
+        <v>0.04397759009082894</v>
       </c>
       <c r="N6" t="n">
-        <v>0.004197682867561915</v>
+        <v>0.03646874926607456</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006259734956302184</v>
+        <v>0.01544892569026642</v>
       </c>
       <c r="P6" t="n">
-        <v>0.009085709743481173</v>
+        <v>0.006692597436615435</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.008499140586396026</v>
+        <v>0.008302574640279179</v>
       </c>
       <c r="R6" t="n">
-        <v>0.008002300072900884</v>
+        <v>0.01504117563418602</v>
       </c>
       <c r="S6" t="n">
-        <v>0.004963963192583168</v>
+        <v>0.01399059297666181</v>
       </c>
       <c r="T6" t="n">
-        <v>0.005508577268330881</v>
+        <v>0.00727208620913859</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -888,65 +888,65 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00510980894918592</v>
+        <v>0.0008209080560443191</v>
       </c>
       <c r="C7" t="n">
-        <v>38.42857142857143</v>
+        <v>35.82758620689656</v>
       </c>
       <c r="D7" t="n">
-        <v>4.441778063206634</v>
+        <v>4.477263732436146</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001098869967644829</v>
+        <v>0.0001941704036865047</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>26.667</v>
       </c>
       <c r="G7" t="n">
-        <v>3.090909090909091</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="H7" t="n">
-        <v>142.9444444444445</v>
+        <v>135.5769230769231</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00128873366898192</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0006772936637174401</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00063937174275072</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003883938679656</v>
+        <v>1.046155703572225e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00111400739872128</v>
+        <v>4.797734646176641e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0006978856745649601</v>
+        <v>5.635686770763841e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0008024767791667201</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.00092131044855552</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.00036209318084352</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.00045750962714688</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.000836239521704832</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.00101777542723584</v>
+        <v>0</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -957,65 +957,65 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.27338246332167</v>
+        <v>0.04036691735965275</v>
       </c>
       <c r="C8" t="n">
-        <v>52.19047619047619</v>
+        <v>49.72727272727273</v>
       </c>
       <c r="D8" t="n">
-        <v>24.69375</v>
+        <v>16.51114718614719</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4136861301528758</v>
+        <v>0.01333982278775678</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>73.333</v>
       </c>
       <c r="G8" t="n">
-        <v>12.83333333333333</v>
+        <v>3.090909090909091</v>
       </c>
       <c r="H8" t="n">
-        <v>151.1538461538462</v>
+        <v>228.4090909090909</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9696098008298629</v>
+        <v>0.003817147167243625</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7583740357673937</v>
+        <v>0.006469025352892384</v>
       </c>
       <c r="K8" t="n">
-        <v>0.779193535218336</v>
+        <v>0.01466540294358869</v>
       </c>
       <c r="L8" t="n">
-        <v>0.344338032593664</v>
+        <v>0.01782623874501383</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08445133953702982</v>
+        <v>0.00480546582490273</v>
       </c>
       <c r="N8" t="n">
-        <v>0.127466585959104</v>
+        <v>0.004006675219559021</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0008290221238433958</v>
+        <v>0.01508540132494983</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0008379521245872</v>
+        <v>0.01973886277037333</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0276707694279744</v>
+        <v>0.02215136489781538</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0594395528959008</v>
+        <v>0.01593103977437813</v>
       </c>
       <c r="S8" t="n">
-        <v>0.217500566060736</v>
+        <v>0.001574476217243119</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7840115721493086</v>
+        <v>0.008220885287453761</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1026,65 +1026,65 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5707279645013884</v>
+        <v>0.04036691735965275</v>
       </c>
       <c r="C9" t="n">
-        <v>39.5226271174547</v>
+        <v>49.72727272727273</v>
       </c>
       <c r="D9" t="n">
-        <v>8.900301227590992</v>
+        <v>16.51114718614719</v>
       </c>
       <c r="E9" t="n">
-        <v>0.10398387655922</v>
+        <v>0.01333982278775678</v>
       </c>
       <c r="F9" t="n">
-        <v>92.99675000000001</v>
+        <v>73.333</v>
       </c>
       <c r="G9" t="n">
-        <v>5.846094813551709</v>
+        <v>3.090909090909091</v>
       </c>
       <c r="H9" t="n">
-        <v>131.9555278666629</v>
+        <v>228.4090909090909</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2216546333286187</v>
+        <v>0.003817147167243625</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1861541379687655</v>
+        <v>0.006469025352892384</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1515972115113547</v>
+        <v>0.01466540294358869</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06576032996016029</v>
+        <v>0.01782623874501383</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02255693376298126</v>
+        <v>0.00480546582490273</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01848790490742971</v>
+        <v>0.004006675219559021</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0002069293208880199</v>
+        <v>0.01508540132494983</v>
       </c>
       <c r="P9" t="n">
-        <v>7.370308833048001e-05</v>
+        <v>0.01973886277037333</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.002424676656288197</v>
+        <v>0.02215136489781538</v>
       </c>
       <c r="R9" t="n">
-        <v>0.008967717367604868</v>
+        <v>0.01593103977437813</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03239674775712648</v>
+        <v>0.001574476217243119</v>
       </c>
       <c r="T9" t="n">
-        <v>0.151785372784554</v>
+        <v>0.008220885287453761</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1095,65 +1095,65 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01902584366684629</v>
+        <v>0.04036691735965275</v>
       </c>
       <c r="C10" t="n">
-        <v>36.43333333333333</v>
+        <v>49.72727272727273</v>
       </c>
       <c r="D10" t="n">
-        <v>2.741675138586904</v>
+        <v>16.51114718614719</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002675438616956748</v>
+        <v>0.01333982278775678</v>
       </c>
       <c r="F10" t="n">
-        <v>70</v>
+        <v>73.333</v>
       </c>
       <c r="G10" t="n">
-        <v>2.125</v>
+        <v>3.090909090909091</v>
       </c>
       <c r="H10" t="n">
-        <v>108.2068965517241</v>
+        <v>228.4090909090909</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006273040088688912</v>
+        <v>0.003817147167243625</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006886319730566046</v>
+        <v>0.006469025352892384</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003867590312345232</v>
+        <v>0.01466540294358869</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001715731923724507</v>
+        <v>0.01782623874501383</v>
       </c>
       <c r="M10" t="n">
-        <v>0.000296891942536224</v>
+        <v>0.00480546582490273</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.004006675219559021</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.01508540132494983</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.01973886277037333</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.02215136489781538</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.01593103977437813</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.001574476217243119</v>
       </c>
       <c r="T10" t="n">
-        <v>0.002827360564256793</v>
+        <v>0.008220885287453761</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1164,65 +1164,65 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.579267318544288</v>
+        <v>2.27338246332167</v>
       </c>
       <c r="C11" t="n">
-        <v>46.08695652173913</v>
+        <v>60.77777777777778</v>
       </c>
       <c r="D11" t="n">
-        <v>16.90178571428571</v>
+        <v>24.69375</v>
       </c>
       <c r="E11" t="n">
-        <v>1.113623956256206</v>
+        <v>0.3245164325395363</v>
       </c>
       <c r="F11" t="n">
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>10.24137931034483</v>
+        <v>7.033333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>222.1034482758621</v>
+        <v>153.5</v>
       </c>
       <c r="I11" t="n">
-        <v>0.015658083495936</v>
+        <v>0.9696098008298629</v>
       </c>
       <c r="J11" t="n">
-        <v>0.21896851138848</v>
+        <v>0.646823604101976</v>
       </c>
       <c r="K11" t="n">
-        <v>0.421667295394464</v>
+        <v>0.5023883324929086</v>
       </c>
       <c r="L11" t="n">
-        <v>1.24787096420862</v>
+        <v>0.199291053780864</v>
       </c>
       <c r="M11" t="n">
-        <v>1.041204985996303</v>
+        <v>0.077923431147744</v>
       </c>
       <c r="N11" t="n">
-        <v>0.633243653525376</v>
+        <v>0.038900551185216</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6105918590751168</v>
+        <v>0.0010153288516896</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0673786905434496</v>
+        <v>2.813561878176e-05</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.370411537700736</v>
+        <v>0.0001996160988177197</v>
       </c>
       <c r="R11" t="n">
-        <v>0.564302649740256</v>
+        <v>0.021285207252288</v>
       </c>
       <c r="S11" t="n">
-        <v>0.10214452905552</v>
+        <v>0.07176621602304001</v>
       </c>
       <c r="T11" t="n">
-        <v>0.097699916813184</v>
+        <v>0.7840115721493086</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1233,65 +1233,65 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.013380111560679</v>
+        <v>0.5926662674524822</v>
       </c>
       <c r="C12" t="n">
-        <v>39.71139430284857</v>
+        <v>43.19555555555555</v>
       </c>
       <c r="D12" t="n">
-        <v>11.11796203900418</v>
+        <v>11.72671402363069</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3650690003297654</v>
+        <v>0.1145984497286334</v>
       </c>
       <c r="F12" t="n">
-        <v>91.66675000000001</v>
+        <v>88</v>
       </c>
       <c r="G12" t="n">
-        <v>4.907635467980296</v>
+        <v>5.089444444444444</v>
       </c>
       <c r="H12" t="n">
-        <v>212.5799153994431</v>
+        <v>133.745</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0065282790825504</v>
+        <v>0.2431854327389903</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0850817034334512</v>
+        <v>0.1955417374223913</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2043551739025872</v>
+        <v>0.1473258060608175</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4818661983175838</v>
+        <v>0.062689388770733</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3383546111497999</v>
+        <v>0.02169779231910177</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2723747677256622</v>
+        <v>0.00837487601443487</v>
       </c>
       <c r="O12" t="n">
-        <v>0.230031620186634</v>
+        <v>0.0003688701951065992</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0251069621368104</v>
+        <v>5.627123756352e-06</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1728878434930368</v>
+        <v>3.992321976354394e-05</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3007302263686332</v>
+        <v>0.005476063483191866</v>
       </c>
       <c r="S12" t="n">
-        <v>0.05136830016885505</v>
+        <v>0.01531491981960453</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0328279467981528</v>
+        <v>0.1682525061586684</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1302,65 +1302,65 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2557675385441499</v>
+        <v>0.09592335555288614</v>
       </c>
       <c r="C13" t="n">
-        <v>36.48275862068966</v>
+        <v>36.5</v>
       </c>
       <c r="D13" t="n">
-        <v>3.125435350514722</v>
+        <v>4.570616883116883</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02082349400225166</v>
+        <v>0.01093351001233901</v>
       </c>
       <c r="F13" t="n">
-        <v>76.667</v>
+        <v>60</v>
       </c>
       <c r="G13" t="n">
-        <v>2.285714285714286</v>
+        <v>2.125</v>
       </c>
       <c r="H13" t="n">
-        <v>199.2068965517241</v>
+        <v>120.9</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.04655844914854464</v>
       </c>
       <c r="J13" t="n">
-        <v>0.005186740158028801</v>
+        <v>0.04091270001272364</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0633453360000768</v>
+        <v>0.01705524531550135</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1109371451724687</v>
+        <v>0.006969729136880935</v>
       </c>
       <c r="M13" t="n">
-        <v>0.06161115462531339</v>
+        <v>0.001977811671580416</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0584150493859128</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.05773918289126399</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0231550899912</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0288267763735728</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01138636259220096</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.00722473758804672</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1371,65 +1371,65 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.632441890487853</v>
+        <v>2.579267318544288</v>
       </c>
       <c r="C14" t="n">
-        <v>90.91666666666667</v>
+        <v>46.08695652173913</v>
       </c>
       <c r="D14" t="n">
-        <v>52.56944444444444</v>
+        <v>21.04722222222222</v>
       </c>
       <c r="E14" t="n">
-        <v>1.230578228445636</v>
+        <v>1.113623956256206</v>
       </c>
       <c r="F14" t="n">
-        <v>66.667</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>180.1666666666667</v>
+        <v>228.4642857142857</v>
       </c>
       <c r="I14" t="n">
-        <v>0.634699263178097</v>
+        <v>0.05058912410917636</v>
       </c>
       <c r="J14" t="n">
-        <v>1.181562539258671</v>
+        <v>0.318299478565824</v>
       </c>
       <c r="K14" t="n">
-        <v>0.981618535770336</v>
+        <v>0.696609960172992</v>
       </c>
       <c r="L14" t="n">
-        <v>0.951748469681688</v>
+        <v>1.24787096420862</v>
       </c>
       <c r="M14" t="n">
-        <v>0.457439724988416</v>
+        <v>1.041204985996303</v>
       </c>
       <c r="N14" t="n">
-        <v>0.314507286469152</v>
+        <v>0.633243653525376</v>
       </c>
       <c r="O14" t="n">
-        <v>0.08523869203100161</v>
+        <v>0.6105918590751168</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.21591029195568</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.370411537700736</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.564302649740256</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>0.175113644722128</v>
       </c>
       <c r="T14" t="n">
-        <v>0.459252812223576</v>
+        <v>0.06850411529472</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1440,65 +1440,65 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.256980213097086</v>
+        <v>0.7340446143768297</v>
       </c>
       <c r="C15" t="n">
-        <v>72.75833333333334</v>
+        <v>39.04776863835656</v>
       </c>
       <c r="D15" t="n">
-        <v>36.66513888888889</v>
+        <v>10.32681602077684</v>
       </c>
       <c r="E15" t="n">
-        <v>1.132155314578322</v>
+        <v>0.2278832209877542</v>
       </c>
       <c r="F15" t="n">
-        <v>53.3335</v>
+        <v>93.57135714285714</v>
       </c>
       <c r="G15" t="n">
-        <v>2.475</v>
+        <v>5.33595094742878</v>
       </c>
       <c r="H15" t="n">
-        <v>162.3833333333334</v>
+        <v>209.3120434907263</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5072854464954805</v>
+        <v>0.01211642683776837</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8805169786928075</v>
+        <v>0.0524130141336197</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6896268934109804</v>
+        <v>0.1762548633552984</v>
       </c>
       <c r="L15" t="n">
-        <v>0.797262515033796</v>
+        <v>0.3531540407372283</v>
       </c>
       <c r="M15" t="n">
-        <v>0.456541919140644</v>
+        <v>0.2090933074267349</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2859435169668</v>
+        <v>0.1806322137895186</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0426193460155008</v>
+        <v>0.1591668187544268</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.05359227894881485</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.1154613589051108</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1793870162511011</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.05022232005415993</v>
       </c>
       <c r="T15" t="n">
-        <v>0.275295816308268</v>
+        <v>0.02397907736727097</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1509,47 +1509,47 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.88151853570632</v>
+        <v>0.105600724777175</v>
       </c>
       <c r="C16" t="n">
-        <v>54.6</v>
+        <v>36.43333333333333</v>
       </c>
       <c r="D16" t="n">
-        <v>20.76083333333333</v>
+        <v>2.591268405232364</v>
       </c>
       <c r="E16" t="n">
-        <v>1.033732400711008</v>
+        <v>0.02082349400225166</v>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>76.667</v>
       </c>
       <c r="G16" t="n">
-        <v>2.25</v>
+        <v>1.866666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>144.6</v>
+        <v>188.6</v>
       </c>
       <c r="I16" t="n">
-        <v>0.379871629812864</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.579471418126944</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3976352510516248</v>
+        <v>0.01098324222142819</v>
       </c>
       <c r="L16" t="n">
-        <v>0.642776560385904</v>
+        <v>0.0364050441280512</v>
       </c>
       <c r="M16" t="n">
-        <v>0.455644113292872</v>
+        <v>0.02465658835500672</v>
       </c>
       <c r="N16" t="n">
-        <v>0.257379747464448</v>
+        <v>0.0001467945327744</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1558,16 +1558,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.0108627954253056</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.01058699963645673</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.00273527146069632</v>
       </c>
       <c r="T16" t="n">
-        <v>0.09133882039296</v>
+        <v>0</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1578,65 +1578,65 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.461524756896563</v>
+        <v>0.4005954644808863</v>
       </c>
       <c r="C17" t="n">
-        <v>47.56521739130435</v>
+        <v>49.72727272727273</v>
       </c>
       <c r="D17" t="n">
-        <v>15.38066666666667</v>
+        <v>8.222461629279811</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7274200632939276</v>
+        <v>0.05349738032885001</v>
       </c>
       <c r="F17" t="n">
         <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>9.96551724137931</v>
+        <v>12.4</v>
       </c>
       <c r="H17" t="n">
-        <v>198.2068965517241</v>
+        <v>240.3928571428571</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9866395342315857</v>
+        <v>0.002881576678361472</v>
       </c>
       <c r="J17" t="n">
-        <v>1.148166253490688</v>
+        <v>0.0278466510255762</v>
       </c>
       <c r="K17" t="n">
-        <v>1.00862948960689</v>
+        <v>0.05499563071333408</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8492529735388801</v>
+        <v>0.03995869510896462</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6088711009409281</v>
+        <v>0.1686837995290544</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9960009048743039</v>
+        <v>0.1004983173368383</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9364879547120161</v>
+        <v>0.0833058973494718</v>
       </c>
       <c r="P17" t="n">
-        <v>0.560999772752832</v>
+        <v>0.05726422102522041</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.629320394881584</v>
+        <v>0.03828544131663203</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4021517777872864</v>
+        <v>0.06582756164713327</v>
       </c>
       <c r="S17" t="n">
-        <v>0.789958467621792</v>
+        <v>0.07502954003913299</v>
       </c>
       <c r="T17" t="n">
-        <v>0.568318528744008</v>
+        <v>0.02331761250962871</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -1647,65 +1647,65 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.005536755670717</v>
+        <v>0.08999219663166248</v>
       </c>
       <c r="C18" t="n">
-        <v>40.0908984813149</v>
+        <v>40.0883379498322</v>
       </c>
       <c r="D18" t="n">
-        <v>7.942877534642906</v>
+        <v>5.583244784073497</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2158188695316029</v>
+        <v>0.01206071152216477</v>
       </c>
       <c r="F18" t="n">
-        <v>91.66675000000001</v>
+        <v>91.66666666666667</v>
       </c>
       <c r="G18" t="n">
-        <v>5.786510092176134</v>
+        <v>7.074780094320325</v>
       </c>
       <c r="H18" t="n">
-        <v>165.10531021989</v>
+        <v>226.1788977625184</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2640745696556626</v>
+        <v>0.001117816580925912</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2544294932415606</v>
+        <v>0.006550068976914357</v>
       </c>
       <c r="K18" t="n">
-        <v>0.274055649966329</v>
+        <v>0.01414365950608404</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1717820964770044</v>
+        <v>0.0115914996272226</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2332349477431771</v>
+        <v>0.03679635235207976</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1915673908493128</v>
+        <v>0.02396543800865445</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1956264486476967</v>
+        <v>0.01653872319290263</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1263777459587606</v>
+        <v>0.0129047925551757</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1643064907039889</v>
+        <v>0.01095774570665749</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1616162144327455</v>
+        <v>0.01582996204525927</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1666841204418245</v>
+        <v>0.01666086685190792</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1750466221927903</v>
+        <v>0.005225641437361484</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -1716,65 +1716,65 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.167274901036649</v>
+        <v>0.01351877971552192</v>
       </c>
       <c r="C19" t="n">
-        <v>36.36666666666667</v>
+        <v>35.9</v>
       </c>
       <c r="D19" t="n">
-        <v>3.508995141568671</v>
+        <v>2.839880029888947</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01881899321553535</v>
+        <v>0.001140215795613426</v>
       </c>
       <c r="F19" t="n">
-        <v>76.667</v>
+        <v>73.333</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>4.772727272727272</v>
       </c>
       <c r="H19" t="n">
-        <v>145.3103448275862</v>
+        <v>207.2222222222222</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01433326283764704</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02294258742946925</v>
+        <v>5.469843899808e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02223154267357363</v>
+        <v>0.0008588528699679361</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02173386260602928</v>
+        <v>0.00187217397632832</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04718336073890703</v>
+        <v>0.003796654650468342</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0166244808367008</v>
+        <v>0.002339322736173279</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01263452388337429</v>
+        <v>0.0012824133488208</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.0008045155921219201</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01506307632309032</v>
+        <v>0.0006636336169176</v>
       </c>
       <c r="R19" t="n">
-        <v>0.01537339106873707</v>
+        <v>0.000998692137975168</v>
       </c>
       <c r="S19" t="n">
-        <v>0.007092826389845198</v>
+        <v>0.001502075056614048</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0202025975730768</v>
+        <v>0.000132329154857256</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -1785,65 +1785,65 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.993992554125023</v>
+        <v>2.632441890487853</v>
       </c>
       <c r="C20" t="n">
-        <v>46.78260869565217</v>
+        <v>90.91666666666667</v>
       </c>
       <c r="D20" t="n">
-        <v>19.49866666666667</v>
+        <v>52.56944444444444</v>
       </c>
       <c r="E20" t="n">
-        <v>1.254425340096996</v>
+        <v>1.230578228445636</v>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>73.333</v>
       </c>
       <c r="G20" t="n">
-        <v>5.956521739130435</v>
+        <v>4.5</v>
       </c>
       <c r="H20" t="n">
-        <v>243.5652173913043</v>
+        <v>180.1666666666667</v>
       </c>
       <c r="I20" t="n">
-        <v>1.04958090933696</v>
+        <v>0.634699263178097</v>
       </c>
       <c r="J20" t="n">
-        <v>1.0826096792112</v>
+        <v>1.181562539258671</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6848372716516801</v>
+        <v>0.981618535770336</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7615060486731472</v>
+        <v>0.951748469681688</v>
       </c>
       <c r="M20" t="n">
-        <v>2.12743335831936</v>
+        <v>0.457439724988416</v>
       </c>
       <c r="N20" t="n">
-        <v>2.449878423227424</v>
+        <v>0.314507286469152</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29851997116688</v>
+        <v>0.08523869203100161</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0489315109248</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0021285207252288</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.057739182891264</v>
+        <v>0.001240740012016512</v>
       </c>
       <c r="T20" t="n">
-        <v>0.197193989026944</v>
+        <v>0.459252812223576</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -1854,65 +1854,65 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.240297185811974</v>
+        <v>1.508606073884179</v>
       </c>
       <c r="C21" t="n">
-        <v>41.04521832833583</v>
+        <v>64.99040404040404</v>
       </c>
       <c r="D21" t="n">
-        <v>10.94485068050104</v>
+        <v>28.21158970658971</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3659230937154588</v>
+        <v>0.7558092814697543</v>
       </c>
       <c r="F21" t="n">
-        <v>89.569</v>
+        <v>60</v>
       </c>
       <c r="G21" t="n">
-        <v>4.361016366816592</v>
+        <v>3.15</v>
       </c>
       <c r="H21" t="n">
-        <v>195.4942297601199</v>
+        <v>154.6343434343434</v>
       </c>
       <c r="I21" t="n">
-        <v>0.176522798629618</v>
+        <v>0.3395763409623974</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2315008527281426</v>
+        <v>0.5885763352536694</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2088718509537731</v>
+        <v>0.4607743488089711</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2329149959672162</v>
+        <v>0.5324440894963239</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5108325254153825</v>
+        <v>0.3053465620010059</v>
       </c>
       <c r="N21" t="n">
-        <v>0.5447920122541665</v>
+        <v>0.1912291155164335</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2047394318928437</v>
+        <v>0.02869914668257728</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0061164388656</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0002660650906536</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01451234342986199</v>
+        <v>0.000413580004005504</v>
       </c>
       <c r="T21" t="n">
-        <v>0.06328539489919389</v>
+        <v>0.1843160274786971</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -1923,47 +1923,47 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1133971455178599</v>
+        <v>0.01185779545836553</v>
       </c>
       <c r="C22" t="n">
-        <v>36.5</v>
+        <v>49.45454545454545</v>
       </c>
       <c r="D22" t="n">
-        <v>7.143346560846561</v>
+        <v>11.30449134199134</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02306013988290751</v>
+        <v>0.003117215252619152</v>
       </c>
       <c r="F22" t="n">
-        <v>76.667</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
-        <v>2.44</v>
+        <v>2.25</v>
       </c>
       <c r="H22" t="n">
-        <v>150.7586206896552</v>
+        <v>139.1363636363636</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01667125360449656</v>
+        <v>0.00415812989623104</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02942985724572096</v>
+        <v>0.004695048375393024</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03077009132995123</v>
+        <v>0.003069259604952408</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0411514006877568</v>
+        <v>0.002807238421379565</v>
       </c>
       <c r="M22" t="n">
-        <v>0.007591723919982721</v>
+        <v>0.002955847721729472</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.001800312615700704</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.00713910744392832</v>
+        <v>0.002356449819555384</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -1992,65 +1992,65 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.21158728366614</v>
+        <v>3.461524756896563</v>
       </c>
       <c r="C23" t="n">
-        <v>51.52380952380953</v>
+        <v>40.55555555555556</v>
       </c>
       <c r="D23" t="n">
-        <v>13.61645962732919</v>
+        <v>11.71166666666667</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9071395461443402</v>
+        <v>0.7274200632939276</v>
       </c>
       <c r="F23" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>6.380952380952381</v>
+        <v>9.96551724137931</v>
       </c>
       <c r="H23" t="n">
-        <v>197.0740740740741</v>
+        <v>188.6206896551724</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5131828129102081</v>
+        <v>0.9866395342315857</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2103281851893786</v>
+        <v>1.148166253490688</v>
       </c>
       <c r="K23" t="n">
-        <v>0.480711318577056</v>
+        <v>1.00862948960689</v>
       </c>
       <c r="L23" t="n">
-        <v>0.302886052624512</v>
+        <v>0.8492529735388801</v>
       </c>
       <c r="M23" t="n">
-        <v>0.7705081920291841</v>
+        <v>0.6088711009409281</v>
       </c>
       <c r="N23" t="n">
-        <v>1.235809791597574</v>
+        <v>0.584181076053456</v>
       </c>
       <c r="O23" t="n">
-        <v>0.70767197674992</v>
+        <v>0.3764790450554084</v>
       </c>
       <c r="P23" t="n">
-        <v>0.780212941695936</v>
+        <v>0.2191789168854565</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0911532884140368</v>
+        <v>0.230100430123872</v>
       </c>
       <c r="R23" t="n">
-        <v>0.248143924777392</v>
+        <v>0.4021517777872864</v>
       </c>
       <c r="S23" t="n">
-        <v>0.202087140119424</v>
+        <v>0.47110443193215</v>
       </c>
       <c r="T23" t="n">
-        <v>0.4749781765470337</v>
+        <v>0.568318528744008</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2061,65 +2061,65 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.022947528095584</v>
+        <v>1.137137794565327</v>
       </c>
       <c r="C24" t="n">
-        <v>45.3158898267594</v>
+        <v>37.49727969348659</v>
       </c>
       <c r="D24" t="n">
-        <v>9.060818208674489</v>
+        <v>6.7782524688602</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3118563490832991</v>
+        <v>0.2210593809410583</v>
       </c>
       <c r="F24" t="n">
-        <v>80.8335</v>
+        <v>97.3335</v>
       </c>
       <c r="G24" t="n">
-        <v>5.307690095733574</v>
+        <v>6.160945083014049</v>
       </c>
       <c r="H24" t="n">
-        <v>183.433891189326</v>
+        <v>157.7493486590038</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2053851857379663</v>
+        <v>0.2931246546455056</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1550868104506926</v>
+        <v>0.3398141753641548</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2398448814753704</v>
+        <v>0.3305354246944038</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1418835930388858</v>
+        <v>0.2464351898803543</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2918561809923816</v>
+        <v>0.2494199252445581</v>
       </c>
       <c r="N24" t="n">
-        <v>0.4654923212530171</v>
+        <v>0.1312427238152394</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3795039735852426</v>
+        <v>0.1185889325221113</v>
       </c>
       <c r="P24" t="n">
-        <v>0.2461047040596009</v>
+        <v>0.04751096799826427</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.05302391822912517</v>
+        <v>0.1390567987791987</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1660989203778512</v>
+        <v>0.1270478286058362</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1459226542726764</v>
+        <v>0.1011229332811511</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2636657985778127</v>
+        <v>0.1922137331813646</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2130,65 +2130,65 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2655594650407104</v>
+        <v>0.167274901036649</v>
       </c>
       <c r="C25" t="n">
-        <v>40.5925925925926</v>
+        <v>36.36666666666667</v>
       </c>
       <c r="D25" t="n">
-        <v>6.557579663135219</v>
+        <v>3.806730355513317</v>
       </c>
       <c r="E25" t="n">
-        <v>0.04347493458502215</v>
+        <v>0.01881899321553535</v>
       </c>
       <c r="F25" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G25" t="n">
-        <v>4.130434782608695</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>171.5</v>
+        <v>145.3103448275862</v>
       </c>
       <c r="I25" t="n">
-        <v>0.04907015020575359</v>
+        <v>0.03645752317351782</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0237946947411456</v>
+        <v>0.02294258742946925</v>
       </c>
       <c r="K25" t="n">
-        <v>0.06255893671735681</v>
+        <v>0.0251033942141388</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03990120058362816</v>
+        <v>0.02173386260602928</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02418722224636653</v>
+        <v>0.04718336073890703</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1026990861793344</v>
+        <v>0.0166244808367008</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1509467209871616</v>
+        <v>0.01717985348569728</v>
       </c>
       <c r="P25" t="n">
-        <v>0.04285421726793966</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01794155400575987</v>
+        <v>0.0319382962022016</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0307324839686976</v>
+        <v>0.01537339106873707</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0669260740673952</v>
+        <v>0.007092826389845198</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0738580381150752</v>
+        <v>0.02662541442185367</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2199,65 +2199,65 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.514198894338074</v>
+        <v>2.183813332573824</v>
       </c>
       <c r="C26" t="n">
-        <v>52.09523809523809</v>
+        <v>47.56521739130435</v>
       </c>
       <c r="D26" t="n">
-        <v>33.56349206349206</v>
+        <v>15.38066666666667</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5513319158919361</v>
+        <v>0.5725547451764281</v>
       </c>
       <c r="F26" t="n">
-        <v>93.10300000000001</v>
+        <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>7.32</v>
+        <v>14.56666666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>220</v>
+        <v>197.9130434782609</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6740519511186721</v>
+        <v>0.7394638667646719</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6018704610884412</v>
+        <v>0.46512119551296</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6965983098132481</v>
+        <v>0.61714868153904</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6699865580860033</v>
+        <v>0.284466833869248</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3384429505632</v>
+        <v>0.6088711009409281</v>
       </c>
       <c r="N26" t="n">
-        <v>0.09884165206809602</v>
+        <v>0.9960009048743039</v>
       </c>
       <c r="O26" t="n">
-        <v>1.221379444193933</v>
+        <v>0.9364879547120161</v>
       </c>
       <c r="P26" t="n">
-        <v>0.154195423801776</v>
+        <v>0.560999772752832</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.25240504385376</v>
+        <v>0.629320394881584</v>
       </c>
       <c r="R26" t="n">
-        <v>0.442503963796608</v>
+        <v>0.373032868643136</v>
       </c>
       <c r="S26" t="n">
-        <v>0.2698083512393472</v>
+        <v>0.789958467621792</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6863459932385281</v>
+        <v>0.5362893597358079</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
@@ -2268,65 +2268,65 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9026176647257931</v>
+        <v>0.7782484135963428</v>
       </c>
       <c r="C27" t="n">
-        <v>43.75556613756613</v>
+        <v>40.33581024847054</v>
       </c>
       <c r="D27" t="n">
-        <v>12.58817828077273</v>
+        <v>8.212340072273152</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2494170753056678</v>
+        <v>0.1856487001364683</v>
       </c>
       <c r="F27" t="n">
-        <v>82.52860000000001</v>
+        <v>90.98041176470588</v>
       </c>
       <c r="G27" t="n">
-        <v>4.717005291005291</v>
+        <v>6.35877455063318</v>
       </c>
       <c r="H27" t="n">
-        <v>179.3514074074074</v>
+        <v>162.5217307522709</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2236060780539321</v>
+        <v>0.222680993883565</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2356754971909567</v>
+        <v>0.1819326680672364</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2726260876744267</v>
+        <v>0.2035947424103594</v>
       </c>
       <c r="L27" t="n">
-        <v>0.28710761705884</v>
+        <v>0.1241475376309717</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1264827581267809</v>
+        <v>0.2059744908062191</v>
       </c>
       <c r="N27" t="n">
-        <v>0.03030310122256267</v>
+        <v>0.1702840786702695</v>
       </c>
       <c r="O27" t="n">
-        <v>0.3579488775942332</v>
+        <v>0.1883570667451368</v>
       </c>
       <c r="P27" t="n">
-        <v>0.06392845944751088</v>
+        <v>0.1394107632246513</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.1156924178421045</v>
+        <v>0.1518560653371663</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1775936527232074</v>
+        <v>0.1498127144045748</v>
       </c>
       <c r="S27" t="n">
-        <v>0.09479788350115523</v>
+        <v>0.1517808022272643</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2335509560635304</v>
+        <v>0.143098277010182</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -2337,65 +2337,65 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1256617064023835</v>
+        <v>0.02213657639717077</v>
       </c>
       <c r="C28" t="n">
-        <v>38.25925925925926</v>
+        <v>36.2</v>
       </c>
       <c r="D28" t="n">
-        <v>5.044652236652237</v>
+        <v>2.469962972757091</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02286223848609629</v>
+        <v>0.001561760701685047</v>
       </c>
       <c r="F28" t="n">
-        <v>70</v>
+        <v>76.667</v>
       </c>
       <c r="G28" t="n">
-        <v>1.714285714285714</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>158.32</v>
+        <v>140.2</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0371543078890872</v>
+        <v>0.003598412021522654</v>
       </c>
       <c r="J28" t="n">
-        <v>0.036935645199642</v>
+        <v>0.003954943399040271</v>
       </c>
       <c r="K28" t="n">
-        <v>0.038510264133792</v>
+        <v>0.00433233387190254</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05169418403161416</v>
+        <v>0.004122807024893708</v>
       </c>
       <c r="M28" t="n">
-        <v>0.008995079653305963</v>
+        <v>0.002628285770278676</v>
       </c>
       <c r="N28" t="n">
-        <v>0.005979736456953824</v>
+        <v>0.0008141096020534203</v>
       </c>
       <c r="O28" t="n">
-        <v>0.01972551534156</v>
+        <v>0.0008418204323675321</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0115478365782528</v>
+        <v>0.0007950283158370554</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.03193759718061692</v>
+        <v>0.001114194969513158</v>
       </c>
       <c r="R28" t="n">
-        <v>0.050277127475232</v>
+        <v>0.003252472638020363</v>
       </c>
       <c r="S28" t="n">
-        <v>0.028624933891008</v>
+        <v>0.002694718247729618</v>
       </c>
       <c r="T28" t="n">
-        <v>0.005905380948477677</v>
+        <v>0.002869754072529563</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -2406,65 +2406,65 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9410963750297181</v>
+        <v>8.263255721000682</v>
       </c>
       <c r="C29" t="n">
-        <v>49.72727272727273</v>
+        <v>47.47826086956522</v>
       </c>
       <c r="D29" t="n">
-        <v>8.222461629279811</v>
+        <v>20.8</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1316065312507208</v>
+        <v>2.511858570851987</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>83.333</v>
       </c>
       <c r="G29" t="n">
-        <v>12.4</v>
+        <v>5.956521739130435</v>
       </c>
       <c r="H29" t="n">
-        <v>240.3928571428571</v>
+        <v>243.5652173913043</v>
       </c>
       <c r="I29" t="n">
-        <v>0.008598897519851521</v>
+        <v>1.04958090933696</v>
       </c>
       <c r="J29" t="n">
-        <v>0.066587631116832</v>
+        <v>2.13586045186752</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2886306724417536</v>
+        <v>1.2512486365056</v>
       </c>
       <c r="L29" t="n">
-        <v>0.138557728435392</v>
+        <v>1.595656571257728</v>
       </c>
       <c r="M29" t="n">
-        <v>0.250517685575232</v>
+        <v>3.412639263066677</v>
       </c>
       <c r="N29" t="n">
-        <v>0.41036207755788</v>
+        <v>3.51328248440064</v>
       </c>
       <c r="O29" t="n">
-        <v>0.204044400556416</v>
+        <v>1.29851997116688</v>
       </c>
       <c r="P29" t="n">
-        <v>0.07810692431371201</v>
+        <v>0.0489315109248</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.056201335405056</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.07324435541556</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.07502954003913299</v>
+        <v>0.043549044723072</v>
       </c>
       <c r="T29" t="n">
-        <v>0.066220644784896</v>
+        <v>0.25933700790144</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
@@ -2475,65 +2475,65 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.182850244852945</v>
+        <v>3.400036399675985</v>
       </c>
       <c r="C30" t="n">
-        <v>39.2483284403974</v>
+        <v>45.04417391304348</v>
       </c>
       <c r="D30" t="n">
-        <v>5.534155021969704</v>
+        <v>14.66999825437421</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02473165709525766</v>
+        <v>1.053040939091854</v>
       </c>
       <c r="F30" t="n">
-        <v>93.33340000000001</v>
+        <v>80.66659999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>6.755238426962565</v>
+        <v>4.14295652173913</v>
       </c>
       <c r="H30" t="n">
-        <v>225.6390372526579</v>
+        <v>220.5227826086956</v>
       </c>
       <c r="I30" t="n">
-        <v>0.002001382388155483</v>
+        <v>0.3006283200894344</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01259108129754757</v>
+        <v>0.7451503105681143</v>
       </c>
       <c r="K30" t="n">
-        <v>0.05084430358436429</v>
+        <v>0.5024770619444341</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02528397863913462</v>
+        <v>0.6247063489929918</v>
       </c>
       <c r="M30" t="n">
-        <v>0.05683982330970416</v>
+        <v>1.431895802017253</v>
       </c>
       <c r="N30" t="n">
-        <v>0.06353326892791103</v>
+        <v>1.530994653856408</v>
       </c>
       <c r="O30" t="n">
-        <v>0.04129900220633726</v>
+        <v>0.5063601913721787</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01909313560218635</v>
+        <v>0.009786302184959999</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01727638245101917</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.02125048060402956</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01613412185521972</v>
+        <v>0.02071270857446782</v>
       </c>
       <c r="T30" t="n">
-        <v>0.01487133455679417</v>
+        <v>0.1218832209539504</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -2544,65 +2544,65 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01351877971552192</v>
+        <v>0.3437301634236602</v>
       </c>
       <c r="C31" t="n">
-        <v>35.9</v>
+        <v>43.48</v>
       </c>
       <c r="D31" t="n">
-        <v>2.839880029888947</v>
+        <v>9.450301587301587</v>
       </c>
       <c r="E31" t="n">
-        <v>0.001140215795613426</v>
+        <v>0.07042655210741544</v>
       </c>
       <c r="F31" t="n">
-        <v>73.333</v>
+        <v>76.667</v>
       </c>
       <c r="G31" t="n">
-        <v>4.772727272727272</v>
+        <v>2.28</v>
       </c>
       <c r="H31" t="n">
-        <v>207.2222222222222</v>
+        <v>182.52</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.06197991383808</v>
       </c>
       <c r="J31" t="n">
-        <v>5.469843899808e-05</v>
+        <v>0.113330816136384</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0008588528699679361</v>
+        <v>0.09314150744159445</v>
       </c>
       <c r="L31" t="n">
-        <v>0.00187217397632832</v>
+        <v>0.08888439541684226</v>
       </c>
       <c r="M31" t="n">
-        <v>0.003796654650468342</v>
+        <v>0.1199579016914846</v>
       </c>
       <c r="N31" t="n">
-        <v>0.002339322736173279</v>
+        <v>0.05377852659269357</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0012824133488208</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0008045155921219201</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0006636336169176</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.000998692137975168</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.001502075056614048</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.000132329154857256</v>
+        <v>0.060919731101376</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -2613,65 +2613,65 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.576071879953791</v>
+        <v>1.210373660020035</v>
       </c>
       <c r="C32" t="n">
-        <v>91.25</v>
+        <v>60.88888888888889</v>
       </c>
       <c r="D32" t="n">
-        <v>38.64010989010989</v>
+        <v>18.73989898989899</v>
       </c>
       <c r="E32" t="n">
-        <v>2.10209349727627</v>
+        <v>0.1874166315887357</v>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>96.667</v>
       </c>
       <c r="G32" t="n">
-        <v>11.6</v>
+        <v>7.344827586206897</v>
       </c>
       <c r="H32" t="n">
-        <v>286</v>
+        <v>224.8275862068965</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03943023479097696</v>
+        <v>0.1252728232193088</v>
       </c>
       <c r="J32" t="n">
-        <v>0.06276689563878721</v>
+        <v>0.2397858110675496</v>
       </c>
       <c r="K32" t="n">
-        <v>0.4432705574677632</v>
+        <v>0.2050121571058176</v>
       </c>
       <c r="L32" t="n">
-        <v>1.089362227718822</v>
+        <v>0.1640048964963208</v>
       </c>
       <c r="M32" t="n">
-        <v>1.512411838296912</v>
+        <v>0.4172659059867779</v>
       </c>
       <c r="N32" t="n">
-        <v>1.416383748106992</v>
+        <v>0.5100976171836397</v>
       </c>
       <c r="O32" t="n">
-        <v>1.964005995283776</v>
+        <v>0.2491396810247117</v>
       </c>
       <c r="P32" t="n">
-        <v>1.588561502173632</v>
+        <v>0.2244246806785384</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.116477274987008</v>
+        <v>0.1272135013109316</v>
       </c>
       <c r="R32" t="n">
-        <v>1.09596798169367</v>
+        <v>0.1758098702204292</v>
       </c>
       <c r="S32" t="n">
-        <v>0.8349183709098625</v>
+        <v>0.1937443175067456</v>
       </c>
       <c r="T32" t="n">
-        <v>0.251874952485408</v>
+        <v>0.1864535223789504</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -2682,65 +2682,65 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3399504055363953</v>
+        <v>0.3796321465667868</v>
       </c>
       <c r="C33" t="n">
-        <v>44.03678775624952</v>
+        <v>44.52735226831029</v>
       </c>
       <c r="D33" t="n">
-        <v>11.70816373269325</v>
+        <v>8.460492925961372</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1238439660352394</v>
+        <v>0.06217305061657959</v>
       </c>
       <c r="F33" t="n">
-        <v>86.22224444444444</v>
+        <v>84.33340000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>5.008610346095437</v>
+        <v>5.784465481544942</v>
       </c>
       <c r="H33" t="n">
-        <v>233.3093633752061</v>
+        <v>194.773915280455</v>
       </c>
       <c r="I33" t="n">
-        <v>0.002648593149245564</v>
+        <v>0.04827177116878509</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005321851603025046</v>
+        <v>0.06485530534045336</v>
       </c>
       <c r="K33" t="n">
-        <v>0.04005609744798647</v>
+        <v>0.07588859984108789</v>
       </c>
       <c r="L33" t="n">
-        <v>0.06680425394660926</v>
+        <v>0.05573181671246653</v>
       </c>
       <c r="M33" t="n">
-        <v>0.08837988285261421</v>
+        <v>0.1048678010374322</v>
       </c>
       <c r="N33" t="n">
-        <v>0.1034581332542184</v>
+        <v>0.1381992729142798</v>
       </c>
       <c r="O33" t="n">
-        <v>0.1191559025523015</v>
+        <v>0.0982239549085311</v>
       </c>
       <c r="P33" t="n">
-        <v>0.08045789461978005</v>
+        <v>0.06157784675955023</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.06261552558607679</v>
+        <v>0.04290316542302015</v>
       </c>
       <c r="R33" t="n">
-        <v>0.0557140513561292</v>
+        <v>0.07345902389771447</v>
       </c>
       <c r="S33" t="n">
-        <v>0.04016695480861532</v>
+        <v>0.06995304718240559</v>
       </c>
       <c r="T33" t="n">
-        <v>0.0167758916044614</v>
+        <v>0.08230757405740539</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -2751,65 +2751,65 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.000494416672331456</v>
+        <v>0.005545320755409504</v>
       </c>
       <c r="C34" t="n">
-        <v>36.36666666666667</v>
+        <v>37.55172413793103</v>
       </c>
       <c r="D34" t="n">
-        <v>2.857500647500648</v>
+        <v>4.756992337164752</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0001062184230387616</v>
+        <v>0.0006601013851542263</v>
       </c>
       <c r="F34" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G34" t="n">
-        <v>1.869565217391304</v>
+        <v>3.130434782608696</v>
       </c>
       <c r="H34" t="n">
-        <v>198.6923076923077</v>
+        <v>168.8888888888889</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.0009090863085941279</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.001040109166865088</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.001013771939978356</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.000988987388308416</v>
       </c>
       <c r="M34" t="n">
-        <v>3.13650985027968e-05</v>
+        <v>0.001862486216769528</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0001115826647204381</v>
+        <v>0.0007230965234891694</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0001868995519208418</v>
+        <v>0.0001893461274670819</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.0009572401580060161</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.00042646869990396</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.003408491790741161</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.0009049067420359681</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.000525035112223104</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -2820,65 +2820,65 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.052730069720278</v>
+        <v>2.514198894338074</v>
       </c>
       <c r="C35" t="n">
-        <v>47.43478260869565</v>
+        <v>60.66666666666666</v>
       </c>
       <c r="D35" t="n">
-        <v>27.95652173913044</v>
+        <v>33.56349206349206</v>
       </c>
       <c r="E35" t="n">
-        <v>1.425928052058574</v>
+        <v>0.5513319158919361</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>93.10300000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>14.8</v>
+        <v>5.407407407407407</v>
       </c>
       <c r="H35" t="n">
-        <v>160.4615384615385</v>
+        <v>238.1666666666667</v>
       </c>
       <c r="I35" t="n">
-        <v>0.793342897127424</v>
+        <v>0.6740519511186721</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4476254619400704</v>
+        <v>0.6018704610884412</v>
       </c>
       <c r="K35" t="n">
-        <v>0.766289702678243</v>
+        <v>0.6965983098132481</v>
       </c>
       <c r="L35" t="n">
-        <v>0.8746303696512481</v>
+        <v>0.6699865580860033</v>
       </c>
       <c r="M35" t="n">
-        <v>1.014864002335814</v>
+        <v>0.3384429505632</v>
       </c>
       <c r="N35" t="n">
-        <v>0.661921014035232</v>
+        <v>0.09884165206809602</v>
       </c>
       <c r="O35" t="n">
-        <v>0.05898623739826164</v>
+        <v>1.221379444193933</v>
       </c>
       <c r="P35" t="n">
-        <v>0.05128633988805587</v>
+        <v>0.154195423801776</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.2379270252962938</v>
+        <v>0.25240504385376</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1700247675859489</v>
+        <v>0.442503963796608</v>
       </c>
       <c r="S35" t="n">
-        <v>1.270751338717056</v>
+        <v>0.2698083512393472</v>
       </c>
       <c r="T35" t="n">
-        <v>0.286031865528192</v>
+        <v>0.6863459932385281</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -2889,65 +2889,65 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.5122923023854301</v>
+        <v>0.7474013448168156</v>
       </c>
       <c r="C36" t="n">
-        <v>39.70589355047751</v>
+        <v>48.99221679555012</v>
       </c>
       <c r="D36" t="n">
-        <v>10.51961280213366</v>
+        <v>18.97687695363621</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2318817289697599</v>
+        <v>0.2248704357744789</v>
       </c>
       <c r="F36" t="n">
-        <v>92.05375000000001</v>
+        <v>75.51716666666667</v>
       </c>
       <c r="G36" t="n">
-        <v>6.155731959264568</v>
+        <v>3.489683896350563</v>
       </c>
       <c r="H36" t="n">
-        <v>151.1499392741053</v>
+        <v>194.9462583095917</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1521236972955222</v>
+        <v>0.1871600050481431</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1146099383202864</v>
+        <v>0.1926434658168826</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1612871129183355</v>
+        <v>0.2428337620027197</v>
       </c>
       <c r="L36" t="n">
-        <v>0.1595022690949314</v>
+        <v>0.2364289055368128</v>
       </c>
       <c r="M36" t="n">
-        <v>0.2065085671733088</v>
+        <v>0.1044004755904488</v>
       </c>
       <c r="N36" t="n">
-        <v>0.1092193527269709</v>
+        <v>0.0284820713546472</v>
       </c>
       <c r="O36" t="n">
-        <v>0.02029253835030047</v>
+        <v>0.3000227437102291</v>
       </c>
       <c r="P36" t="n">
-        <v>0.01457849562878339</v>
+        <v>0.0621218540542944</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.05389189187447771</v>
+        <v>0.09370480942998743</v>
       </c>
       <c r="R36" t="n">
-        <v>0.04841865679325105</v>
+        <v>0.144124095565679</v>
       </c>
       <c r="S36" t="n">
-        <v>0.1949409466420599</v>
+        <v>0.0752019556547112</v>
       </c>
       <c r="T36" t="n">
-        <v>0.09639321551591248</v>
+        <v>0.191814314430647</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -2958,65 +2958,65 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1162697064247256</v>
+        <v>0.04362620595183803</v>
       </c>
       <c r="C37" t="n">
-        <v>35.36666666666667</v>
+        <v>38.25925925925926</v>
       </c>
       <c r="D37" t="n">
-        <v>2.494741655031129</v>
+        <v>6.713975736197959</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01402110193277883</v>
+        <v>0.02007686778690107</v>
       </c>
       <c r="F37" t="n">
-        <v>76.667</v>
+        <v>60</v>
       </c>
       <c r="G37" t="n">
-        <v>1.695652173913043</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="H37" t="n">
-        <v>142.6296296296296</v>
+        <v>158.32</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02838929003576489</v>
+        <v>0.005749452533664</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0363910636963584</v>
+        <v>0.0064803669781032</v>
       </c>
       <c r="K37" t="n">
-        <v>0.01524705880416768</v>
+        <v>0.02536364868787008</v>
       </c>
       <c r="L37" t="n">
-        <v>0.02058213870057903</v>
+        <v>0.0154348334773416</v>
       </c>
       <c r="M37" t="n">
-        <v>0.03052949885469637</v>
+        <v>0.0020306577033792</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0108138639143808</v>
+        <v>0.0071894369980224</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>0.01168973795993472</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>0.0196052253772032</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.0116487578195352</v>
       </c>
       <c r="R37" t="n">
-        <v>0.01221819827792256</v>
+        <v>0.0215420976846432</v>
       </c>
       <c r="S37" t="n">
-        <v>0.0085385486563776</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.0203038586165184</v>
+        <v>0.008379521245872001</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3027,65 +3027,65 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.461524756896563</v>
+        <v>0.7669761243440376</v>
       </c>
       <c r="C38" t="n">
-        <v>42.15384615384615</v>
+        <v>49.18181818181818</v>
       </c>
       <c r="D38" t="n">
-        <v>11.78942307692308</v>
+        <v>31.40192307692308</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7274200632939276</v>
+        <v>0.1551682669281146</v>
       </c>
       <c r="F38" t="n">
         <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>18.26666666666667</v>
+        <v>12.4</v>
       </c>
       <c r="H38" t="n">
-        <v>164.2857142857143</v>
+        <v>277.1785714285714</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9866395342315857</v>
+        <v>0.03666682771149888</v>
       </c>
       <c r="J38" t="n">
-        <v>1.148166253490688</v>
+        <v>0.059757607716912</v>
       </c>
       <c r="K38" t="n">
-        <v>1.00862948960689</v>
+        <v>0.2235450468220348</v>
       </c>
       <c r="L38" t="n">
-        <v>0.8492529735388801</v>
+        <v>0.117354073701312</v>
       </c>
       <c r="M38" t="n">
-        <v>0.652868684514144</v>
+        <v>0.1986252357214944</v>
       </c>
       <c r="N38" t="n">
-        <v>0.584181076053456</v>
+        <v>0.3614336691745336</v>
       </c>
       <c r="O38" t="n">
-        <v>0.3764790450554084</v>
+        <v>0.17798837098896</v>
       </c>
       <c r="P38" t="n">
-        <v>0.539225250391296</v>
+        <v>0.06814824976072145</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.506074151739744</v>
+        <v>0.0534367050378048</v>
       </c>
       <c r="R38" t="n">
-        <v>0.73071056314368</v>
+        <v>0.0576199123333848</v>
       </c>
       <c r="S38" t="n">
-        <v>0.47110443193215</v>
+        <v>0.08731828124530559</v>
       </c>
       <c r="T38" t="n">
-        <v>0.568318528744008</v>
+        <v>0.0203891489584776</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -3096,65 +3096,65 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.8744555680902927</v>
+        <v>0.1679221108015846</v>
       </c>
       <c r="C39" t="n">
-        <v>37.48844615899213</v>
+        <v>39.78545120109775</v>
       </c>
       <c r="D39" t="n">
-        <v>6.669219130354396</v>
+        <v>9.022955969518224</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1672000504209819</v>
+        <v>0.03506991850053126</v>
       </c>
       <c r="F39" t="n">
-        <v>96.66674999999999</v>
+        <v>91.66668749999999</v>
       </c>
       <c r="G39" t="n">
-        <v>7.336064504886345</v>
+        <v>5.867247466773329</v>
       </c>
       <c r="H39" t="n">
-        <v>152.3567474351957</v>
+        <v>235.9149444261837</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1872649621121799</v>
+        <v>0.005099353993579417</v>
       </c>
       <c r="J39" t="n">
-        <v>0.247460506809503</v>
+        <v>0.01219818565972387</v>
       </c>
       <c r="K39" t="n">
-        <v>0.2497282927508571</v>
+        <v>0.0482413701765349</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1935444322355777</v>
+        <v>0.02516849020174922</v>
       </c>
       <c r="M39" t="n">
-        <v>0.2120643766842891</v>
+        <v>0.0493162378107592</v>
       </c>
       <c r="N39" t="n">
-        <v>0.103914085206928</v>
+        <v>0.0700125244140589</v>
       </c>
       <c r="O39" t="n">
-        <v>0.07483134314830465</v>
+        <v>0.03941577515631673</v>
       </c>
       <c r="P39" t="n">
-        <v>0.05385523126676375</v>
+        <v>0.02286222395362635</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.1192242273993481</v>
+        <v>0.01606197558787909</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1693272792185236</v>
+        <v>0.01554102700475949</v>
       </c>
       <c r="S39" t="n">
-        <v>0.08218204816651435</v>
+        <v>0.01030362387965445</v>
       </c>
       <c r="T39" t="n">
-        <v>0.1585541213858852</v>
+        <v>0.008856715521082893</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
@@ -3165,65 +3165,65 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1162697064247256</v>
+        <v>0.002158572828188448</v>
       </c>
       <c r="C40" t="n">
-        <v>35.36666666666667</v>
+        <v>35.9</v>
       </c>
       <c r="D40" t="n">
-        <v>1.973371019328225</v>
+        <v>2.839880029888947</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01118317648090048</v>
+        <v>0.0006777432219740617</v>
       </c>
       <c r="F40" t="n">
-        <v>86.667</v>
+        <v>73.333</v>
       </c>
       <c r="G40" t="n">
-        <v>3.566666666666667</v>
+        <v>1.769230769230769</v>
       </c>
       <c r="H40" t="n">
-        <v>145.3103448275862</v>
+        <v>189.3666666666667</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0303487994573561</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.04190139842145667</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.01524705880416768</v>
+        <v>0.000150918760123776</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0220252963550256</v>
+        <v>0.0002635940493518976</v>
       </c>
       <c r="M40" t="n">
-        <v>0.03835340792669324</v>
+        <v>0.001121702461332192</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0165388506925824</v>
+        <v>0.000863070300195264</v>
       </c>
       <c r="O40" t="n">
-        <v>0.001865513854008</v>
+        <v>0.0007372755408594241</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>0.0006139974922354829</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.009050105361500509</v>
+        <v>0.0005560250691421441</v>
       </c>
       <c r="R40" t="n">
-        <v>0.01221819827792256</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.0085385486563776</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.0203038586165184</v>
+        <v>0</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -3234,65 +3234,65 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.847181569016503</v>
+        <v>5.576071879953791</v>
       </c>
       <c r="C41" t="n">
-        <v>49.5</v>
+        <v>91.25</v>
       </c>
       <c r="D41" t="n">
-        <v>14.15081168831169</v>
+        <v>37.73333333333333</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8116070951005997</v>
+        <v>1.870089120180548</v>
       </c>
       <c r="F41" t="n">
         <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>12.06896551724138</v>
+        <v>7.2</v>
       </c>
       <c r="H41" t="n">
-        <v>212.4</v>
+        <v>265.4230769230769</v>
       </c>
       <c r="I41" t="n">
-        <v>1.045959977528523</v>
+        <v>0.0183676659133968</v>
       </c>
       <c r="J41" t="n">
-        <v>0.586297363900952</v>
+        <v>0.059757607716912</v>
       </c>
       <c r="K41" t="n">
-        <v>1.261773385092571</v>
+        <v>0.4305483646273152</v>
       </c>
       <c r="L41" t="n">
-        <v>1.543753583124037</v>
+        <v>1.114015983196881</v>
       </c>
       <c r="M41" t="n">
-        <v>0.7141309361919916</v>
+        <v>1.185757304240678</v>
       </c>
       <c r="N41" t="n">
-        <v>0.7396670684558719</v>
+        <v>1.401948952384176</v>
       </c>
       <c r="O41" t="n">
-        <v>0.5112649695236823</v>
+        <v>1.94188196212992</v>
       </c>
       <c r="P41" t="n">
-        <v>0.4774492178487346</v>
+        <v>1.536764002751808</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.100050741122385</v>
+        <v>1.116477274987008</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2954056478918822</v>
+        <v>1.09596798169367</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4608666783071121</v>
+        <v>0.703716679616832</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8160017546082758</v>
+        <v>0.167101109808192</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -3303,65 +3303,65 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.7776071103079238</v>
+        <v>0.6256997414375106</v>
       </c>
       <c r="C42" t="n">
-        <v>37.70229885057471</v>
+        <v>44.7672142705718</v>
       </c>
       <c r="D42" t="n">
-        <v>6.513316152374431</v>
+        <v>15.09742860552444</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1235398020715597</v>
+        <v>0.2217284730734689</v>
       </c>
       <c r="F42" t="n">
-        <v>97.05894117647058</v>
+        <v>85.26331578947368</v>
       </c>
       <c r="G42" t="n">
-        <v>6.85369106890405</v>
+        <v>4.082586975100587</v>
       </c>
       <c r="H42" t="n">
-        <v>174.410467760772</v>
+        <v>234.8087403522068</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1439867723190632</v>
+        <v>0.001977880046928576</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1441743823272686</v>
+        <v>0.01154847136677746</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2071026928166499</v>
+        <v>0.09832648762646219</v>
       </c>
       <c r="L42" t="n">
-        <v>0.1841452958477538</v>
+        <v>0.1761988359464148</v>
       </c>
       <c r="M42" t="n">
-        <v>0.1302289995910163</v>
+        <v>0.1502012631926873</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1204844993017769</v>
+        <v>0.1843764537793303</v>
       </c>
       <c r="O42" t="n">
-        <v>0.07564636859536822</v>
+        <v>0.1831413705870031</v>
       </c>
       <c r="P42" t="n">
-        <v>0.08002388410040348</v>
+        <v>0.1160377219684899</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.333857480383612</v>
+        <v>0.08067175727876402</v>
       </c>
       <c r="R42" t="n">
-        <v>0.103357426815189</v>
+        <v>0.1069341172906279</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1011001894100451</v>
+        <v>0.05290439614611089</v>
       </c>
       <c r="T42" t="n">
-        <v>0.134505703614407</v>
+        <v>0.01851649196232212</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -3372,65 +3372,65 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.06975102517656231</v>
+        <v>0.01039146546929425</v>
       </c>
       <c r="C43" t="n">
-        <v>36.16666666666666</v>
+        <v>36.5</v>
       </c>
       <c r="D43" t="n">
-        <v>2.89003589003589</v>
+        <v>4.867572381322381</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01251380272179489</v>
+        <v>0.001916895207060676</v>
       </c>
       <c r="F43" t="n">
-        <v>73.333</v>
+        <v>40</v>
       </c>
       <c r="G43" t="n">
-        <v>3.068965517241379</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
-        <v>152.7241379310345</v>
+        <v>209.7</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0112140537715872</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0251732235578544</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.021002321954754</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.01457970827440098</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.006221292103296</v>
+        <v>0.003007907765434703</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0143722721255232</v>
+        <v>0.001669776392956251</v>
       </c>
       <c r="O43" t="n">
-        <v>0.002886959144563201</v>
+        <v>0.0044940534564996</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.0200700747309888</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.0133705353602016</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.0149485765875264</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.01939689576250822</v>
+        <v>0</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -3441,65 +3441,65 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.003321926602942</v>
+        <v>13.8913223276126</v>
       </c>
       <c r="C44" t="n">
-        <v>60.88888888888889</v>
+        <v>54.8</v>
       </c>
       <c r="D44" t="n">
-        <v>36.50555555555555</v>
+        <v>33.96666666666666</v>
       </c>
       <c r="E44" t="n">
-        <v>1.455874927722153</v>
+        <v>5.135616261224903</v>
       </c>
       <c r="F44" t="n">
-        <v>86.667</v>
+        <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>1.888888888888889</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>252.5</v>
+        <v>212.6818181818182</v>
       </c>
       <c r="I44" t="n">
-        <v>0.009223589809324266</v>
+        <v>1.767406174603776</v>
       </c>
       <c r="J44" t="n">
-        <v>0.07168466350483201</v>
+        <v>0.4770822315168</v>
       </c>
       <c r="K44" t="n">
-        <v>0.05442488855128948</v>
+        <v>1.45054745719296</v>
       </c>
       <c r="L44" t="n">
-        <v>0.157844898991584</v>
+        <v>3.05434568818512</v>
       </c>
       <c r="M44" t="n">
-        <v>0.837432227283624</v>
+        <v>5.028720160983417</v>
       </c>
       <c r="N44" t="n">
-        <v>1.063507570138634</v>
+        <v>5.143051308988801</v>
       </c>
       <c r="O44" t="n">
-        <v>0.236653757479872</v>
+        <v>7.05242876743296</v>
       </c>
       <c r="P44" t="n">
-        <v>0.04529100651199445</v>
+        <v>7.203533933312641</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>2.66432076985536</v>
       </c>
       <c r="R44" t="n">
-        <v>0.00221170429380064</v>
+        <v>1.743185076696</v>
       </c>
       <c r="S44" t="n">
-        <v>0.0009003398010162132</v>
+        <v>1.35907271593632</v>
       </c>
       <c r="T44" t="n">
-        <v>0.004159178428608</v>
+        <v>1.54990560854304</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -3510,65 +3510,65 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.947921520180567</v>
+        <v>3.051589421944531</v>
       </c>
       <c r="C45" t="n">
-        <v>48.33475783475783</v>
+        <v>44.6388973345495</v>
       </c>
       <c r="D45" t="n">
-        <v>31.99501424501424</v>
+        <v>17.35817077462407</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6837998052411334</v>
+        <v>1.261345539306226</v>
       </c>
       <c r="F45" t="n">
-        <v>77.77800000000001</v>
+        <v>83.29383333333334</v>
       </c>
       <c r="G45" t="n">
-        <v>1.821937321937322</v>
+        <v>3.868581673291818</v>
       </c>
       <c r="H45" t="n">
-        <v>248.9102564102564</v>
+        <v>165.4503843713989</v>
       </c>
       <c r="I45" t="n">
-        <v>0.003074529936441422</v>
+        <v>0.5271902064526907</v>
       </c>
       <c r="J45" t="n">
-        <v>0.03337699912698784</v>
+        <v>0.2182708401345288</v>
       </c>
       <c r="K45" t="n">
-        <v>0.01838628707172049</v>
+        <v>0.4956493418184438</v>
       </c>
       <c r="L45" t="n">
-        <v>0.07574529930727171</v>
+        <v>0.7692229417496348</v>
       </c>
       <c r="M45" t="n">
-        <v>0.3664684891285554</v>
+        <v>1.192024916254555</v>
       </c>
       <c r="N45" t="n">
-        <v>0.5144753482426949</v>
+        <v>1.019496997011758</v>
       </c>
       <c r="O45" t="n">
-        <v>0.1572782043111633</v>
+        <v>1.187063969755033</v>
       </c>
       <c r="P45" t="n">
-        <v>0.01509700217066482</v>
+        <v>1.209766705403273</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>0.4677986326461603</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0007372347646002134</v>
+        <v>0.3464349737831624</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0003001132670054044</v>
+        <v>0.5130359318823384</v>
       </c>
       <c r="T45" t="n">
-        <v>0.001386392809536</v>
+        <v>0.3659557578155364</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
@@ -3579,50 +3579,50 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2820384059987631</v>
+        <v>0.1454108583821376</v>
       </c>
       <c r="C46" t="n">
-        <v>42</v>
+        <v>36.53333333333333</v>
       </c>
       <c r="D46" t="n">
-        <v>29.17820512820513</v>
+        <v>4.680962185962186</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2307587314607529</v>
+        <v>0.02614823784988171</v>
       </c>
       <c r="F46" t="n">
-        <v>60</v>
+        <v>66.667</v>
       </c>
       <c r="G46" t="n">
-        <v>1.769230769230769</v>
+        <v>1.65</v>
       </c>
       <c r="H46" t="n">
-        <v>246.7307692307692</v>
+        <v>142.6296296296296</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.02838929003576489</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.03933441058208217</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.04140635961310182</v>
       </c>
       <c r="L46" t="n">
-        <v>0.01813891109982336</v>
+        <v>0.02058213870057903</v>
       </c>
       <c r="M46" t="n">
-        <v>0.09918111442513679</v>
+        <v>0.03052949885469637</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1704401961137004</v>
+        <v>0.01454570714757872</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0546320319475392</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -3631,13 +3631,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.030337536773376</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.01073601832881862</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.03929344243470043</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -3648,65 +3648,65 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.273489736249467</v>
+        <v>3.461524756896563</v>
       </c>
       <c r="C47" t="n">
-        <v>73</v>
+        <v>47.60869565217391</v>
       </c>
       <c r="D47" t="n">
-        <v>25.80897435897436</v>
+        <v>13.61645962732919</v>
       </c>
       <c r="E47" t="n">
-        <v>1.398144841073305</v>
+        <v>0.9071395461443402</v>
       </c>
       <c r="F47" t="n">
-        <v>86.667</v>
+        <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>3.428571428571428</v>
+        <v>19</v>
       </c>
       <c r="H47" t="n">
-        <v>245.2692307692308</v>
+        <v>182.304347826087</v>
       </c>
       <c r="I47" t="n">
-        <v>0.05070527819582401</v>
+        <v>0.9866395342315857</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2318925467114928</v>
+        <v>1.148166253490688</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3157061084868096</v>
+        <v>1.00862948960689</v>
       </c>
       <c r="L47" t="n">
-        <v>0.3309727398953472</v>
+        <v>0.8492529735388801</v>
       </c>
       <c r="M47" t="n">
-        <v>0.940433057780328</v>
+        <v>0.7705081920291841</v>
       </c>
       <c r="N47" t="n">
-        <v>1.35074372179412</v>
+        <v>1.235809791597574</v>
       </c>
       <c r="O47" t="n">
-        <v>0.2716718262804</v>
+        <v>0.70767197674992</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>0.780212941695936</v>
       </c>
       <c r="Q47" t="n">
-        <v>9.78630218496e-05</v>
+        <v>0.506074151739744</v>
       </c>
       <c r="R47" t="n">
-        <v>0.0016269727382496</v>
+        <v>0.73071056314368</v>
       </c>
       <c r="S47" t="n">
-        <v>0.0066791512412352</v>
+        <v>0.47110443193215</v>
       </c>
       <c r="T47" t="n">
-        <v>0.0429618665919744</v>
+        <v>0.568318528744008</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
@@ -3717,65 +3717,65 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.60840618725265</v>
+        <v>0.9853015355931113</v>
       </c>
       <c r="C48" t="n">
-        <v>57.53846153846154</v>
+        <v>37.72915238809167</v>
       </c>
       <c r="D48" t="n">
-        <v>24.56392595499738</v>
+        <v>6.548192436103798</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8658341795740416</v>
+        <v>0.2253568576950842</v>
       </c>
       <c r="F48" t="n">
-        <v>68.3335</v>
+        <v>96.38891666666666</v>
       </c>
       <c r="G48" t="n">
-        <v>2.733516483516483</v>
+        <v>8.321488065491064</v>
       </c>
       <c r="H48" t="n">
-        <v>224.456043956044</v>
+        <v>155.7970850884082</v>
       </c>
       <c r="I48" t="n">
-        <v>0.025352639097912</v>
+        <v>0.216133709120618</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2057355959027544</v>
+        <v>0.2461541736185081</v>
       </c>
       <c r="K48" t="n">
-        <v>0.2244610734897888</v>
+        <v>0.2683322387498949</v>
       </c>
       <c r="L48" t="n">
-        <v>0.2915723882771136</v>
+        <v>0.2022608392289487</v>
       </c>
       <c r="M48" t="n">
-        <v>0.5768494119932407</v>
+        <v>0.2516171397248869</v>
       </c>
       <c r="N48" t="n">
-        <v>0.8177414281721469</v>
+        <v>0.198124246256637</v>
       </c>
       <c r="O48" t="n">
-        <v>0.1535552365338432</v>
+        <v>0.1329294872439225</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>0.1172771743143811</v>
       </c>
       <c r="Q48" t="n">
-        <v>4.89315109248e-05</v>
+        <v>0.1040163926953904</v>
       </c>
       <c r="R48" t="n">
-        <v>0.0008134863691248</v>
+        <v>0.1597730602837814</v>
       </c>
       <c r="S48" t="n">
-        <v>0.0033395756206176</v>
+        <v>0.08961667886565028</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0224595635144832</v>
+        <v>0.1813726133678616</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
@@ -3786,65 +3786,65 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9433226382558336</v>
+        <v>0.01022437132281645</v>
       </c>
       <c r="C49" t="n">
-        <v>42.07692307692308</v>
+        <v>35.36666666666667</v>
       </c>
       <c r="D49" t="n">
-        <v>23.3188775510204</v>
+        <v>1.912735782306216</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3335235180747781</v>
+        <v>0.000535950124361808</v>
       </c>
       <c r="F49" t="n">
-        <v>50</v>
+        <v>76.667</v>
       </c>
       <c r="G49" t="n">
-        <v>2.038461538461538</v>
+        <v>3.566666666666667</v>
       </c>
       <c r="H49" t="n">
-        <v>203.6428571428571</v>
+        <v>144.1071428571429</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>0.001322950775550047</v>
       </c>
       <c r="J49" t="n">
-        <v>0.179578645094016</v>
+        <v>0.001496509550315896</v>
       </c>
       <c r="K49" t="n">
-        <v>0.133216038492768</v>
+        <v>0.001731665924106908</v>
       </c>
       <c r="L49" t="n">
-        <v>0.25217203665888</v>
+        <v>0.001524773161244288</v>
       </c>
       <c r="M49" t="n">
-        <v>0.2132657662061533</v>
+        <v>0.001358322787344971</v>
       </c>
       <c r="N49" t="n">
-        <v>0.2847391345501737</v>
+        <v>0.0007326148144438361</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0354386467872864</v>
+        <v>0.0006194225576349563</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>0.0004553933392993818</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>0.0005685156528308806</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>0.001053244334299618</v>
       </c>
       <c r="T49" t="n">
-        <v>0.001957260436992</v>
+        <v>0.001795655225524497</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -3855,65 +3855,65 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3.373228689079502</v>
+        <v>4.847181569016503</v>
       </c>
       <c r="C50" t="n">
-        <v>40</v>
+        <v>49.5</v>
       </c>
       <c r="D50" t="n">
-        <v>10.15907224958949</v>
+        <v>14.15081168831169</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9944239315966225</v>
+        <v>0.8116070951005997</v>
       </c>
       <c r="F50" t="n">
         <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>11.73333333333333</v>
+        <v>14.8</v>
       </c>
       <c r="H50" t="n">
-        <v>118.6551724137931</v>
+        <v>191.8181818181818</v>
       </c>
       <c r="I50" t="n">
-        <v>1.335361321267344</v>
+        <v>1.045959977528523</v>
       </c>
       <c r="J50" t="n">
-        <v>0.80783594464896</v>
+        <v>0.586297363900952</v>
       </c>
       <c r="K50" t="n">
-        <v>0.609494395187232</v>
+        <v>1.261773385092571</v>
       </c>
       <c r="L50" t="n">
-        <v>0.4233554325213696</v>
+        <v>1.543753583124037</v>
       </c>
       <c r="M50" t="n">
-        <v>0.1448560921493021</v>
+        <v>0.7141309361919916</v>
       </c>
       <c r="N50" t="n">
-        <v>0.367230989490624</v>
+        <v>0.7396670684558719</v>
       </c>
       <c r="O50" t="n">
-        <v>0.2071359823830284</v>
+        <v>0.5112649695236823</v>
       </c>
       <c r="P50" t="n">
-        <v>0.08318356857216</v>
+        <v>0.4774492178487346</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.039471418812672</v>
+        <v>2.100050741122385</v>
       </c>
       <c r="R50" t="n">
-        <v>0.118117172264544</v>
+        <v>0.2954056478918822</v>
       </c>
       <c r="S50" t="n">
-        <v>0.488301527950272</v>
+        <v>0.4608666783071121</v>
       </c>
       <c r="T50" t="n">
-        <v>1.309740856285772</v>
+        <v>0.8160017546082758</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -3924,65 +3924,65 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.522353379293591</v>
+        <v>1.245221249126635</v>
       </c>
       <c r="C51" t="n">
-        <v>37.81580459770115</v>
+        <v>38.04149425287356</v>
       </c>
       <c r="D51" t="n">
-        <v>6.034147220362142</v>
+        <v>5.459648502442439</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3336046050448898</v>
+        <v>0.182733557958615</v>
       </c>
       <c r="F51" t="n">
-        <v>95.8335</v>
+        <v>96.66670000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>7.698659003831417</v>
+        <v>8.375757575757577</v>
       </c>
       <c r="H51" t="n">
-        <v>108.9367496807152</v>
+        <v>174.701013584117</v>
       </c>
       <c r="I51" t="n">
-        <v>0.5043132289903378</v>
+        <v>0.2429624430029829</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3220954040732322</v>
+        <v>0.2229774608229873</v>
       </c>
       <c r="K51" t="n">
-        <v>0.2548295101945767</v>
+        <v>0.3284206702874285</v>
       </c>
       <c r="L51" t="n">
-        <v>0.1447041599085213</v>
+        <v>0.3058721320163735</v>
       </c>
       <c r="M51" t="n">
-        <v>0.04759569635972952</v>
+        <v>0.206972282316429</v>
       </c>
       <c r="N51" t="n">
-        <v>0.1418014798471152</v>
+        <v>0.1876413932299662</v>
       </c>
       <c r="O51" t="n">
-        <v>0.06300766091413311</v>
+        <v>0.126095113302704</v>
       </c>
       <c r="P51" t="n">
-        <v>0.0270142716564</v>
+        <v>0.1114148029317564</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.016697878103088</v>
+        <v>0.4858112232447468</v>
       </c>
       <c r="R51" t="n">
-        <v>0.06249384033228721</v>
+        <v>0.1396194047905798</v>
       </c>
       <c r="S51" t="n">
-        <v>0.29632285482484</v>
+        <v>0.1678679683399957</v>
       </c>
       <c r="T51" t="n">
-        <v>0.505232648609043</v>
+        <v>0.2075695187135017</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -3993,65 +3993,65 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.8113904694068544</v>
+        <v>0.06953259041234464</v>
       </c>
       <c r="C52" t="n">
-        <v>36.36666666666667</v>
+        <v>36.3</v>
       </c>
       <c r="D52" t="n">
-        <v>3.204828751829525</v>
+        <v>2.287630861284112</v>
       </c>
       <c r="E52" t="n">
-        <v>0.07315305120091918</v>
+        <v>0.004461265724115871</v>
       </c>
       <c r="F52" t="n">
-        <v>90</v>
+        <v>73.333</v>
       </c>
       <c r="G52" t="n">
-        <v>4.206896551724138</v>
+        <v>4.090909090909091</v>
       </c>
       <c r="H52" t="n">
-        <v>88.63333333333334</v>
+        <v>161.0666666666667</v>
       </c>
       <c r="I52" t="n">
-        <v>0.125763769378921</v>
+        <v>0.005985149505349883</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1065038818470022</v>
+        <v>0.008880530986231013</v>
       </c>
       <c r="K52" t="n">
-        <v>0.09978691989277964</v>
+        <v>0.01498765797255632</v>
       </c>
       <c r="L52" t="n">
-        <v>0.03179109048025977</v>
+        <v>0.005341156714620321</v>
       </c>
       <c r="M52" t="n">
-        <v>0.009541644630336001</v>
+        <v>0.008676873377618103</v>
       </c>
       <c r="N52" t="n">
-        <v>0.01406780939088</v>
+        <v>0.01172370772040366</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>0.005496375880836755</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>0.01212997476372514</v>
       </c>
       <c r="R52" t="n">
-        <v>0.007095069084096</v>
+        <v>0.007293622281759736</v>
       </c>
       <c r="S52" t="n">
-        <v>0.08755245347616</v>
+        <v>0.007505824652554223</v>
       </c>
       <c r="T52" t="n">
-        <v>0.143683886722752</v>
+        <v>0.0122435081019484</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
@@ -4062,65 +4062,65 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4.847181569016503</v>
+        <v>0.9410963750297181</v>
       </c>
       <c r="C53" t="n">
-        <v>49.68181818181818</v>
+        <v>40.55555555555556</v>
       </c>
       <c r="D53" t="n">
-        <v>14.15081168831169</v>
+        <v>6.892853751187085</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8116070951005997</v>
+        <v>0.1316065312507208</v>
       </c>
       <c r="F53" t="n">
         <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>8.933333333333334</v>
+        <v>7.551724137931035</v>
       </c>
       <c r="H53" t="n">
-        <v>191.8181818181818</v>
+        <v>235.4</v>
       </c>
       <c r="I53" t="n">
-        <v>1.045959977528523</v>
+        <v>0.008598897519851521</v>
       </c>
       <c r="J53" t="n">
-        <v>0.586297363900952</v>
+        <v>0.066587631116832</v>
       </c>
       <c r="K53" t="n">
-        <v>1.261773385092571</v>
+        <v>0.2886306724417536</v>
       </c>
       <c r="L53" t="n">
-        <v>1.543753583124037</v>
+        <v>0.138557728435392</v>
       </c>
       <c r="M53" t="n">
-        <v>0.7141309361919916</v>
+        <v>0.250517685575232</v>
       </c>
       <c r="N53" t="n">
-        <v>0.7396670684558719</v>
+        <v>0.41036207755788</v>
       </c>
       <c r="O53" t="n">
-        <v>0.5112649695236823</v>
+        <v>0.204044400556416</v>
       </c>
       <c r="P53" t="n">
-        <v>0.4774492178487346</v>
+        <v>0.07810692431371201</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.100050741122385</v>
+        <v>0.056201335405056</v>
       </c>
       <c r="R53" t="n">
-        <v>0.340043418733032</v>
+        <v>0.07324435541556</v>
       </c>
       <c r="S53" t="n">
-        <v>0.4608666783071121</v>
+        <v>0.03274007395978368</v>
       </c>
       <c r="T53" t="n">
-        <v>0.8160017546082758</v>
+        <v>0.066220644784896</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
@@ -4131,65 +4131,65 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.025814887115484</v>
+        <v>0.3221373171848689</v>
       </c>
       <c r="C54" t="n">
-        <v>39.32041201363861</v>
+        <v>37.98831417624521</v>
       </c>
       <c r="D54" t="n">
-        <v>6.261950124611631</v>
+        <v>5.460520378814012</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1522429318800528</v>
+        <v>0.04373807545489698</v>
       </c>
       <c r="F54" t="n">
-        <v>93.57135714285714</v>
+        <v>95.8335</v>
       </c>
       <c r="G54" t="n">
-        <v>6.662062212554823</v>
+        <v>6.275925925925926</v>
       </c>
       <c r="H54" t="n">
-        <v>172.351669344157</v>
+        <v>224.8292464878672</v>
       </c>
       <c r="I54" t="n">
-        <v>0.2284026589641968</v>
+        <v>0.00332673109899984</v>
       </c>
       <c r="J54" t="n">
-        <v>0.2129879469984973</v>
+        <v>0.02165259977849739</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2752520151960042</v>
+        <v>0.1058952697017847</v>
       </c>
       <c r="L54" t="n">
-        <v>0.2239604724942667</v>
+        <v>0.04582269715700264</v>
       </c>
       <c r="M54" t="n">
-        <v>0.1634649848084836</v>
+        <v>0.08690502974614077</v>
       </c>
       <c r="N54" t="n">
-        <v>0.1299864256247625</v>
+        <v>0.1228850153067959</v>
       </c>
       <c r="O54" t="n">
-        <v>0.158201121223285</v>
+        <v>0.0784394207264892</v>
       </c>
       <c r="P54" t="n">
-        <v>0.08904748935767756</v>
+        <v>0.02837565017270232</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.3429275178655811</v>
+        <v>0.02675433756756168</v>
       </c>
       <c r="R54" t="n">
-        <v>0.137216796993914</v>
+        <v>0.029381258442185</v>
       </c>
       <c r="S54" t="n">
-        <v>0.1784529044969536</v>
+        <v>0.01534400436018744</v>
       </c>
       <c r="T54" t="n">
-        <v>0.1981482634463663</v>
+        <v>0.02933987423594321</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
@@ -4200,65 +4200,65 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.271478139049656</v>
+        <v>0.07234378907977088</v>
       </c>
       <c r="C55" t="n">
-        <v>36.26666666666667</v>
+        <v>36.46666666666667</v>
       </c>
       <c r="D55" t="n">
-        <v>3.319300201432554</v>
+        <v>4.273260541636222</v>
       </c>
       <c r="E55" t="n">
-        <v>0.04388362876367328</v>
+        <v>0.01134570871996011</v>
       </c>
       <c r="F55" t="n">
-        <v>73.333</v>
+        <v>90</v>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>5.037037037037037</v>
       </c>
       <c r="H55" t="n">
-        <v>160.9666666666667</v>
+        <v>209.6896551724138</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0383087857249692</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0719957281099968</v>
+        <v>0.003808339495277184</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0793249694249472</v>
+        <v>0.02068379449983046</v>
       </c>
       <c r="L55" t="n">
-        <v>0.05095186725745819</v>
+        <v>0.006175379094668509</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0227985889830336</v>
+        <v>0.018726496993512</v>
       </c>
       <c r="N55" t="n">
-        <v>0.01824166727276544</v>
+        <v>0.01608868079207424</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0262574642874297</v>
+        <v>0.01877257416629952</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>0.007524967358649602</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.018267764078592</v>
+        <v>0.01266819342303456</v>
       </c>
       <c r="R55" t="n">
-        <v>0.029638515188736</v>
+        <v>0.006357601312300801</v>
       </c>
       <c r="S55" t="n">
-        <v>0.03806871549949441</v>
+        <v>0.00550479497904</v>
       </c>
       <c r="T55" t="n">
-        <v>0.0356955372196416</v>
+        <v>0.01287339120920563</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
@@ -4269,65 +4269,65 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.198894941549568</v>
+        <v>2.273489736249467</v>
       </c>
       <c r="C56" t="n">
-        <v>51.90476190476191</v>
+        <v>49.63636363636363</v>
       </c>
       <c r="D56" t="n">
-        <v>34.44126984126984</v>
+        <v>30.30128205128205</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1364720227822224</v>
+        <v>1.398144841073305</v>
       </c>
       <c r="F56" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>2.826086956521739</v>
       </c>
       <c r="H56" t="n">
-        <v>216.6190476190476</v>
+        <v>248</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>0.07846167776791681</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>0.179578645094016</v>
       </c>
       <c r="K56" t="n">
-        <v>0.009093105780192</v>
+        <v>0.133216038492768</v>
       </c>
       <c r="L56" t="n">
-        <v>0.04711214838223244</v>
+        <v>0.25217203665888</v>
       </c>
       <c r="M56" t="n">
-        <v>0.09366392560944808</v>
+        <v>0.940433057780328</v>
       </c>
       <c r="N56" t="n">
-        <v>0.08567499800341441</v>
+        <v>1.35074372179412</v>
       </c>
       <c r="O56" t="n">
-        <v>0.072693875917656</v>
+        <v>0.2716718262804</v>
       </c>
       <c r="P56" t="n">
-        <v>0.0044935437532608</v>
+        <v>0.000290530846116</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0.001753379141472</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>0.0063366306647616</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>0.00470721135096576</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -4338,65 +4338,65 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.198894941549568</v>
+        <v>0.6201012666121101</v>
       </c>
       <c r="C57" t="n">
-        <v>51.90476190476191</v>
+        <v>42.9087658924926</v>
       </c>
       <c r="D57" t="n">
-        <v>34.44126984126984</v>
+        <v>26.43337701256646</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1364720227822224</v>
+        <v>0.4081977613005864</v>
       </c>
       <c r="F57" t="n">
-        <v>70</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>2.151216836993235</v>
       </c>
       <c r="H57" t="n">
-        <v>216.6190476190476</v>
+        <v>245.0475139146568</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>0.01131785847690624</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>0.02630604628756224</v>
       </c>
       <c r="K57" t="n">
-        <v>0.009093105780192</v>
+        <v>0.0297510227127838</v>
       </c>
       <c r="L57" t="n">
-        <v>0.04711214838223244</v>
+        <v>0.06422047149603975</v>
       </c>
       <c r="M57" t="n">
-        <v>0.09366392560944808</v>
+        <v>0.2375379613565569</v>
       </c>
       <c r="N57" t="n">
-        <v>0.08567499800341441</v>
+        <v>0.3717667872973943</v>
       </c>
       <c r="O57" t="n">
-        <v>0.072693875917656</v>
+        <v>0.09075573312681788</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0044935437532608</v>
+        <v>4.1504406588e-05</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>0.001753379141472</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>0.0009052329521088001</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>0.00159691481011008</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -4407,29 +4407,29 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.198894941549568</v>
+        <v>0.1142371735247287</v>
       </c>
       <c r="C58" t="n">
-        <v>51.90476190476191</v>
+        <v>36.1</v>
       </c>
       <c r="D58" t="n">
-        <v>34.44126984126984</v>
+        <v>23.79222222222222</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1364720227822224</v>
+        <v>0.07350537722434897</v>
       </c>
       <c r="F58" t="n">
-        <v>70</v>
+        <v>73.333</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1.807692307692308</v>
       </c>
       <c r="H58" t="n">
-        <v>216.6190476190476</v>
+        <v>237</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4438,28 +4438,28 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.009093105780192</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.04711214838223244</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.09366392560944808</v>
+        <v>0.06392983454843329</v>
       </c>
       <c r="N58" t="n">
-        <v>0.08567499800341441</v>
+        <v>0.05308258507191108</v>
       </c>
       <c r="O58" t="n">
-        <v>0.072693875917656</v>
+        <v>0.01144467264271968</v>
       </c>
       <c r="P58" t="n">
-        <v>0.0044935437532608</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>0.001753379141472</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4476,65 +4476,65 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3.393490896544</v>
+        <v>8.12037996401426</v>
       </c>
       <c r="C59" t="n">
-        <v>40.55555555555556</v>
+        <v>60.88888888888889</v>
       </c>
       <c r="D59" t="n">
-        <v>16.48703703703704</v>
+        <v>33.6287037037037</v>
       </c>
       <c r="E59" t="n">
-        <v>1.363461449601366</v>
+        <v>1.800360177411756</v>
       </c>
       <c r="F59" t="n">
         <v>100</v>
       </c>
       <c r="G59" t="n">
-        <v>7.1</v>
+        <v>10.86666666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2188094839779744</v>
+        <v>1.59380804751168</v>
       </c>
       <c r="J59" t="n">
-        <v>0.2315213259218806</v>
+        <v>2.08067658121344</v>
       </c>
       <c r="K59" t="n">
-        <v>0.47079103725504</v>
+        <v>2.73465981680976</v>
       </c>
       <c r="L59" t="n">
-        <v>1.519879454111913</v>
+        <v>2.29331506380768</v>
       </c>
       <c r="M59" t="n">
-        <v>1.306857643094198</v>
+        <v>3.769031181500928</v>
       </c>
       <c r="N59" t="n">
-        <v>0.941555189064517</v>
+        <v>2.90744921476296</v>
       </c>
       <c r="O59" t="n">
-        <v>1.068174883488384</v>
+        <v>0.98189231922432</v>
       </c>
       <c r="P59" t="n">
-        <v>0.51398474600592</v>
+        <v>0.01238945856615917</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.376242542752608</v>
+        <v>0.0192594427000013</v>
       </c>
       <c r="R59" t="n">
-        <v>1.4281884751176</v>
+        <v>0.02293909232154627</v>
       </c>
       <c r="S59" t="n">
-        <v>0.38900551185216</v>
+        <v>0.488301527950272</v>
       </c>
       <c r="T59" t="n">
-        <v>0.174807822778848</v>
+        <v>1.309740856285772</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -4545,65 +4545,65 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.512598591108551</v>
+        <v>1.16909722603376</v>
       </c>
       <c r="C60" t="n">
-        <v>38.35859332238643</v>
+        <v>42.69893028188287</v>
       </c>
       <c r="D60" t="n">
-        <v>9.143739021993333</v>
+        <v>13.11455838518123</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4624211925391735</v>
+        <v>0.3295809480629455</v>
       </c>
       <c r="F60" t="n">
-        <v>95</v>
+        <v>88.1250625</v>
       </c>
       <c r="G60" t="n">
-        <v>4.913820470717022</v>
+        <v>4.375724548440066</v>
       </c>
       <c r="H60" t="n">
-        <v>202.6704638752053</v>
+        <v>190.7461870552819</v>
       </c>
       <c r="I60" t="n">
-        <v>0.096189411265</v>
+        <v>0.2677467102126952</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1192840953120737</v>
+        <v>0.2905494584540647</v>
       </c>
       <c r="K60" t="n">
-        <v>0.2424278443926261</v>
+        <v>0.336752425095357</v>
       </c>
       <c r="L60" t="n">
-        <v>0.5150003770193462</v>
+        <v>0.2962685112163593</v>
       </c>
       <c r="M60" t="n">
-        <v>0.4595962488456535</v>
+        <v>0.367537036098921</v>
       </c>
       <c r="N60" t="n">
-        <v>0.4119033460106781</v>
+        <v>0.3113513709826902</v>
       </c>
       <c r="O60" t="n">
-        <v>0.5266913564902103</v>
+        <v>0.07938248129169095</v>
       </c>
       <c r="P60" t="n">
-        <v>0.1615830625449431</v>
+        <v>0.001117702747202568</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.207318734162467</v>
+        <v>0.001494246014866081</v>
       </c>
       <c r="R60" t="n">
-        <v>0.5126472847073087</v>
+        <v>0.002473400499550562</v>
       </c>
       <c r="S60" t="n">
-        <v>0.1427209844899103</v>
+        <v>0.06635387344461183</v>
       </c>
       <c r="T60" t="n">
-        <v>0.1127128616382958</v>
+        <v>0.1809378481218739</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -4614,29 +4614,29 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.5947490169430993</v>
+        <v>0.01190495342443525</v>
       </c>
       <c r="C61" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="D61" t="n">
-        <v>5.36431758056758</v>
+        <v>3.457179672179671</v>
       </c>
       <c r="E61" t="n">
-        <v>0.103369342575334</v>
+        <v>0.003587384772307744</v>
       </c>
       <c r="F61" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G61" t="n">
-        <v>2.444444444444445</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="H61" t="n">
-        <v>179.8333333333333</v>
+        <v>103.8965517241379</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4645,34 +4645,34 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0.1119012147996564</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0.1071341040077629</v>
+        <v>0.0009621566098179841</v>
       </c>
       <c r="M61" t="n">
-        <v>0.117145095373404</v>
+        <v>0.002730378309603849</v>
       </c>
       <c r="N61" t="n">
-        <v>0.1285302024860476</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>0.1127626669262009</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>0.011437740678672</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.118169598883392</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>0.1031150040221947</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>0.04633814084578519</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>0.02935890655488</v>
+        <v>0</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
@@ -4683,65 +4683,65 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.8887935954884314</v>
+        <v>2.43560510149066</v>
       </c>
       <c r="C62" t="n">
-        <v>91.25</v>
+        <v>73</v>
       </c>
       <c r="D62" t="n">
-        <v>52.32202380952381</v>
+        <v>41.01960784313726</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3323857731941645</v>
+        <v>1.467723504894474</v>
       </c>
       <c r="F62" t="n">
-        <v>86.667</v>
+        <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>4.521739130434782</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H62" t="n">
-        <v>245.0454545454545</v>
+        <v>249.2941176470588</v>
       </c>
       <c r="I62" t="n">
-        <v>0.214442346627936</v>
+        <v>0.6001321047792708</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2202651964279872</v>
+        <v>0.7392450341741472</v>
       </c>
       <c r="K62" t="n">
-        <v>0.3081584229266592</v>
+        <v>0.7707099272058038</v>
       </c>
       <c r="L62" t="n">
-        <v>0.3273784980019619</v>
+        <v>0.78639336792197</v>
       </c>
       <c r="M62" t="n">
-        <v>0.2040117795491328</v>
+        <v>1.008744372284719</v>
       </c>
       <c r="N62" t="n">
-        <v>0.3005373401001216</v>
+        <v>1.257079874564667</v>
       </c>
       <c r="O62" t="n">
-        <v>0.070706033286336</v>
+        <v>0.3511058324813149</v>
       </c>
       <c r="P62" t="n">
-        <v>0.000978630218496</v>
+        <v>0.0062876991538368</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.0174685494001536</v>
+        <v>0.0191322207715968</v>
       </c>
       <c r="R62" t="n">
-        <v>0.0085263157786464</v>
+        <v>0.038411236075968</v>
       </c>
       <c r="S62" t="n">
-        <v>0.0088933021105824</v>
+        <v>0.1182515591641911</v>
       </c>
       <c r="T62" t="n">
-        <v>0.0368026126543152</v>
+        <v>0.5012501429996578</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -4752,65 +4752,65 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.3232995735120392</v>
+        <v>0.7491276383762245</v>
       </c>
       <c r="C63" t="n">
-        <v>59.08477168611439</v>
+        <v>45.91480470326946</v>
       </c>
       <c r="D63" t="n">
-        <v>26.51258830691832</v>
+        <v>18.083829502664</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1507228536536466</v>
+        <v>0.3168060199534845</v>
       </c>
       <c r="F63" t="n">
-        <v>66.19057142857143</v>
+        <v>83.07474999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>2.902654080787073</v>
+        <v>4.097264672447228</v>
       </c>
       <c r="H63" t="n">
-        <v>216.4345419499512</v>
+        <v>189.9362452323989</v>
       </c>
       <c r="I63" t="n">
-        <v>0.06150932318701256</v>
+        <v>0.1229530386345715</v>
       </c>
       <c r="J63" t="n">
-        <v>0.06562046318798699</v>
+        <v>0.1260166844200728</v>
       </c>
       <c r="K63" t="n">
-        <v>0.09690672199162456</v>
+        <v>0.1508002623523367</v>
       </c>
       <c r="L63" t="n">
-        <v>0.1227931402367882</v>
+        <v>0.1439783356850982</v>
       </c>
       <c r="M63" t="n">
-        <v>0.1060121335934834</v>
+        <v>0.2147544251698873</v>
       </c>
       <c r="N63" t="n">
-        <v>0.09561136968483334</v>
+        <v>0.2254267914704532</v>
       </c>
       <c r="O63" t="n">
-        <v>0.0207211113964332</v>
+        <v>0.03950835852887796</v>
       </c>
       <c r="P63" t="n">
-        <v>0.00024002653662576</v>
+        <v>0.0003929811971148</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.002571950892625054</v>
+        <v>0.0015347164520268</v>
       </c>
       <c r="R63" t="n">
-        <v>0.001342436002221886</v>
+        <v>0.006125198479832518</v>
       </c>
       <c r="S63" t="n">
-        <v>0.002347419334458814</v>
+        <v>0.02534699838206925</v>
       </c>
       <c r="T63" t="n">
-        <v>0.008688325681246462</v>
+        <v>0.07146313368228792</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -4821,50 +4821,50 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.06543968532399493</v>
+        <v>0.001342962956954924</v>
       </c>
       <c r="C64" t="n">
-        <v>42.07692307692308</v>
+        <v>36.43333333333333</v>
       </c>
       <c r="D64" t="n">
-        <v>8.722084195997239</v>
+        <v>4.022818284226953</v>
       </c>
       <c r="E64" t="n">
-        <v>0.01537731815864548</v>
+        <v>0.001078459910688539</v>
       </c>
       <c r="F64" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G64" t="n">
-        <v>1.823529411764706</v>
+        <v>1.461538461538461</v>
       </c>
       <c r="H64" t="n">
-        <v>186.9130434782609</v>
+        <v>93.23333333333333</v>
       </c>
       <c r="I64" t="n">
-        <v>0.00076333157042688</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.00323029524621888</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0.008602509131372161</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.01798278899777892</v>
+        <v>7.6053548408832e-05</v>
       </c>
       <c r="M64" t="n">
-        <v>0.03295057355581979</v>
+        <v>0.0006643981717758001</v>
       </c>
       <c r="N64" t="n">
-        <v>0.022265794731221</v>
+        <v>0.0007278455877214163</v>
       </c>
       <c r="O64" t="n">
-        <v>0.00097006720408416</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -4890,65 +4890,65 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.424505537941732</v>
+        <v>4.847181569016503</v>
       </c>
       <c r="C65" t="n">
-        <v>49.68181818181818</v>
+        <v>38.85714285714285</v>
       </c>
       <c r="D65" t="n">
-        <v>8.223927587563951</v>
+        <v>5.671971916971916</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5033698080276717</v>
+        <v>0.8116070951005997</v>
       </c>
       <c r="F65" t="n">
         <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>7.666666666666667</v>
+        <v>18.73333333333333</v>
       </c>
       <c r="H65" t="n">
-        <v>175.8636363636364</v>
+        <v>184.3</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8000413244184176</v>
+        <v>1.045959977528523</v>
       </c>
       <c r="J65" t="n">
-        <v>0.8233471323046456</v>
+        <v>0.586297363900952</v>
       </c>
       <c r="K65" t="n">
-        <v>0.8159231583688551</v>
+        <v>1.261773385092571</v>
       </c>
       <c r="L65" t="n">
-        <v>0.7538121673924189</v>
+        <v>1.543753583124037</v>
       </c>
       <c r="M65" t="n">
-        <v>0.78473910645648</v>
+        <v>0.7141309361919916</v>
       </c>
       <c r="N65" t="n">
-        <v>0.422686701872064</v>
+        <v>0.7396670684558719</v>
       </c>
       <c r="O65" t="n">
-        <v>0.7117117622918715</v>
+        <v>0.5112649695236823</v>
       </c>
       <c r="P65" t="n">
-        <v>0.0927741447134208</v>
+        <v>0.4774492178487346</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.2591840969298</v>
+        <v>2.100050741122385</v>
       </c>
       <c r="R65" t="n">
-        <v>0.554027032446048</v>
+        <v>0.340043418733032</v>
       </c>
       <c r="S65" t="n">
-        <v>0.373378010550552</v>
+        <v>0.4608666783071121</v>
       </c>
       <c r="T65" t="n">
-        <v>0.527420523380688</v>
+        <v>0.8160017546082758</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
@@ -4959,65 +4959,65 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.442427158727899</v>
+        <v>0.8953431549261476</v>
       </c>
       <c r="C66" t="n">
-        <v>39.92216126785092</v>
+        <v>36.65081189563948</v>
       </c>
       <c r="D66" t="n">
-        <v>5.809864800785987</v>
+        <v>3.839736313312175</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1971166781099075</v>
+        <v>0.1110309205847733</v>
       </c>
       <c r="F66" t="n">
-        <v>91.54766666666667</v>
+        <v>99.44444444444444</v>
       </c>
       <c r="G66" t="n">
-        <v>6.47135069910932</v>
+        <v>9.351071884692574</v>
       </c>
       <c r="H66" t="n">
-        <v>159.845039558143</v>
+        <v>166.6795201605546</v>
       </c>
       <c r="I66" t="n">
-        <v>0.4007083218823471</v>
+        <v>0.1755960295342663</v>
       </c>
       <c r="J66" t="n">
-        <v>0.4000956196446575</v>
+        <v>0.1639476184371566</v>
       </c>
       <c r="K66" t="n">
-        <v>0.3520790186465001</v>
+        <v>0.2325053056313683</v>
       </c>
       <c r="L66" t="n">
-        <v>0.2695220263553303</v>
+        <v>0.1938848443204446</v>
       </c>
       <c r="M66" t="n">
-        <v>0.2301116604881472</v>
+        <v>0.1481069717918871</v>
       </c>
       <c r="N66" t="n">
-        <v>0.1411356986805515</v>
+        <v>0.1116918141225847</v>
       </c>
       <c r="O66" t="n">
-        <v>0.3056542713025643</v>
+        <v>0.1125900764638518</v>
       </c>
       <c r="P66" t="n">
-        <v>0.06422816725212448</v>
+        <v>0.07618815743023656</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.1425409708980526</v>
+        <v>0.284194953640783</v>
       </c>
       <c r="R66" t="n">
-        <v>0.1987520457684938</v>
+        <v>0.1099756826750388</v>
       </c>
       <c r="S66" t="n">
-        <v>0.2324564481706398</v>
+        <v>0.1270157730198189</v>
       </c>
       <c r="T66" t="n">
-        <v>0.3502897436163057</v>
+        <v>0.1664438911970092</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -5028,65 +5028,65 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.5881861202226498</v>
+        <v>0.02872263380782119</v>
       </c>
       <c r="C67" t="n">
         <v>36.26666666666667</v>
       </c>
       <c r="D67" t="n">
-        <v>4.124142970319441</v>
+        <v>1.869919123390054</v>
       </c>
       <c r="E67" t="n">
-        <v>0.09168146795835462</v>
+        <v>0.001450680966125303</v>
       </c>
       <c r="F67" t="n">
-        <v>73.333</v>
+        <v>93.333</v>
       </c>
       <c r="G67" t="n">
-        <v>5.28</v>
+        <v>6.533333333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>140.8275862068965</v>
+        <v>135.6333333333333</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1392741359414958</v>
+        <v>0.00291285206909424</v>
       </c>
       <c r="J67" t="n">
-        <v>0.1602525010185959</v>
+        <v>0.002708065540622131</v>
       </c>
       <c r="K67" t="n">
-        <v>0.1878351937269056</v>
+        <v>0.0044794176920712</v>
       </c>
       <c r="L67" t="n">
-        <v>0.09547608158229939</v>
+        <v>0.00239117808565728</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0581613919283864</v>
+        <v>0.002546038252100603</v>
       </c>
       <c r="N67" t="n">
-        <v>0.04129428069965711</v>
+        <v>0.003125826470394421</v>
       </c>
       <c r="O67" t="n">
-        <v>0.06825358595878481</v>
+        <v>0.001993787809897355</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>0.0007542792409057839</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.018267764078592</v>
+        <v>0.002003011399706681</v>
       </c>
       <c r="R67" t="n">
-        <v>0.05488484475398401</v>
+        <v>0.001349316995945684</v>
       </c>
       <c r="S67" t="n">
-        <v>0.1091312497939966</v>
+        <v>0.002587901263087503</v>
       </c>
       <c r="T67" t="n">
-        <v>0.1744701953534666</v>
+        <v>0.00348165823011776</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -5097,65 +5097,65 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2.308209466222389</v>
+        <v>0.2238500734388989</v>
       </c>
       <c r="C68" t="n">
-        <v>67.875</v>
+        <v>57.47368421052632</v>
       </c>
       <c r="D68" t="n">
-        <v>33.53757440476191</v>
+        <v>35.51666666666667</v>
       </c>
       <c r="E68" t="n">
-        <v>0.888744598444233</v>
+        <v>0.1460893824873579</v>
       </c>
       <c r="F68" t="n">
-        <v>93.333</v>
+        <v>76.667</v>
       </c>
       <c r="G68" t="n">
-        <v>6.909090909090909</v>
+        <v>3.91304347826087</v>
       </c>
       <c r="H68" t="n">
-        <v>255.8928571428571</v>
+        <v>257.3478260869565</v>
       </c>
       <c r="I68" t="n">
-        <v>0.8585400578088066</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0.5621079275590701</v>
+        <v>0.0056026580008896</v>
       </c>
       <c r="K68" t="n">
-        <v>0.8099172471514616</v>
+        <v>0.0122165672275584</v>
       </c>
       <c r="L68" t="n">
-        <v>0.8367702404002451</v>
+        <v>0.0452636864183952</v>
       </c>
       <c r="M68" t="n">
-        <v>0.264719474103168</v>
+        <v>0.09794800815804834</v>
       </c>
       <c r="N68" t="n">
-        <v>0.09042543218902917</v>
+        <v>0.08633693260953601</v>
       </c>
       <c r="O68" t="n">
-        <v>1.522730270663177</v>
+        <v>0.04941103973186305</v>
       </c>
       <c r="P68" t="n">
-        <v>0.128200558622976</v>
+        <v>0.00434756474566848</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.2012879254409842</v>
+        <v>0.008269425346291201</v>
       </c>
       <c r="R68" t="n">
-        <v>0.1814543530128</v>
+        <v>0.0032294797210368</v>
       </c>
       <c r="S68" t="n">
-        <v>0.1142387675057654</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>0.5544111448068058</v>
+        <v>0</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -5166,65 +5166,65 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.8177343488901434</v>
+        <v>0.13807573812326</v>
       </c>
       <c r="C69" t="n">
-        <v>47.73737373737374</v>
+        <v>52.32379862700229</v>
       </c>
       <c r="D69" t="n">
-        <v>14.0534532083683</v>
+        <v>29.10408902691512</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2773167244817828</v>
+        <v>0.08995707906286644</v>
       </c>
       <c r="F69" t="n">
-        <v>78.148</v>
+        <v>70</v>
       </c>
       <c r="G69" t="n">
-        <v>4.083152958152958</v>
+        <v>3.061784897025172</v>
       </c>
       <c r="H69" t="n">
-        <v>192.119258056758</v>
+        <v>247.4107551487414</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3188213189900837</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0.22831583889507</v>
+        <v>0.0028013290004448</v>
       </c>
       <c r="K69" t="n">
-        <v>0.284675982954272</v>
+        <v>0.0083224344831264</v>
       </c>
       <c r="L69" t="n">
-        <v>0.2255903353010717</v>
+        <v>0.027610624445796</v>
       </c>
       <c r="M69" t="n">
-        <v>0.09293960247526269</v>
+        <v>0.05829075195722503</v>
       </c>
       <c r="N69" t="n">
-        <v>0.04915490657289102</v>
+        <v>0.05385308720659743</v>
       </c>
       <c r="O69" t="n">
-        <v>0.2908555092799545</v>
+        <v>0.03198469375988209</v>
       </c>
       <c r="P69" t="n">
-        <v>0.07662637754096141</v>
+        <v>0.00415550856528864</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.06958627060990098</v>
+        <v>0.004159178428608</v>
       </c>
       <c r="R69" t="n">
-        <v>0.08421466683300512</v>
+        <v>0.0016147398605184</v>
       </c>
       <c r="S69" t="n">
-        <v>0.05626974890644144</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0.1919446799646676</v>
+        <v>0</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
@@ -5235,65 +5235,65 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1166447706741967</v>
+        <v>0.05230140280762102</v>
       </c>
       <c r="C70" t="n">
-        <v>38.67857142857143</v>
+        <v>47.17391304347826</v>
       </c>
       <c r="D70" t="n">
-        <v>6.064965986394557</v>
+        <v>22.69151138716356</v>
       </c>
       <c r="E70" t="n">
-        <v>0.02141368665435598</v>
+        <v>0.03382477563837499</v>
       </c>
       <c r="F70" t="n">
-        <v>53.333</v>
+        <v>63.333</v>
       </c>
       <c r="G70" t="n">
-        <v>2.75</v>
+        <v>2.210526315789474</v>
       </c>
       <c r="H70" t="n">
-        <v>161.3333333333333</v>
+        <v>237.4736842105263</v>
       </c>
       <c r="I70" t="n">
-        <v>0.032967605485584</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0.03747708904922182</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0.02864717548688291</v>
+        <v>0.0044283017386944</v>
       </c>
       <c r="L70" t="n">
-        <v>0.005888091814617601</v>
+        <v>0.009957562473196801</v>
       </c>
       <c r="M70" t="n">
-        <v>0.0002935890655488</v>
+        <v>0.01863349575640172</v>
       </c>
       <c r="N70" t="n">
-        <v>0.014597900759232</v>
+        <v>0.02136924180365885</v>
       </c>
       <c r="O70" t="n">
-        <v>0.00642226080888</v>
+        <v>0.01455834778790112</v>
       </c>
       <c r="P70" t="n">
-        <v>0.0210816966500323</v>
+        <v>0.0039634523849088</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.02061093103174417</v>
+        <v>4.89315109248e-05</v>
       </c>
       <c r="R70" t="n">
-        <v>0.027191939642496</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>0.01136393564969342</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>0.01361886277814479</v>
+        <v>0</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -5304,65 +5304,65 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4.526574154185393</v>
+        <v>2.632441890487853</v>
       </c>
       <c r="C71" t="n">
-        <v>40.11111111111111</v>
+        <v>54.6</v>
       </c>
       <c r="D71" t="n">
-        <v>5.575092191758858</v>
+        <v>20.76083333333333</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6674969736449845</v>
+        <v>1.033732400711008</v>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>66.667</v>
       </c>
       <c r="G71" t="n">
-        <v>10.13333333333333</v>
+        <v>2.7</v>
       </c>
       <c r="H71" t="n">
-        <v>180.6</v>
+        <v>144.6</v>
       </c>
       <c r="I71" t="n">
-        <v>0.8481347720106491</v>
+        <v>0.634699263178097</v>
       </c>
       <c r="J71" t="n">
-        <v>0.4908595100615626</v>
+        <v>1.181562539258671</v>
       </c>
       <c r="K71" t="n">
-        <v>1.130005284376414</v>
+        <v>0.981618535770336</v>
       </c>
       <c r="L71" t="n">
-        <v>1.35772913819884</v>
+        <v>0.951748469681688</v>
       </c>
       <c r="M71" t="n">
-        <v>0.8063484849686425</v>
+        <v>0.457439724988416</v>
       </c>
       <c r="N71" t="n">
-        <v>0.4506673708692275</v>
+        <v>0.314507286469152</v>
       </c>
       <c r="O71" t="n">
-        <v>0.4546838323909718</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>0.4599317369376563</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.767487727121981</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>0.3024415914002773</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>0.3809986856144974</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0.6463478411023695</v>
+        <v>0.459252812223576</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -5373,65 +5373,65 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.09015190895475</v>
+        <v>2.632441890487853</v>
       </c>
       <c r="C72" t="n">
-        <v>36.7213601532567</v>
+        <v>54.6</v>
       </c>
       <c r="D72" t="n">
-        <v>4.261780811319356</v>
+        <v>20.76083333333333</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1447803546377845</v>
+        <v>1.033732400711008</v>
       </c>
       <c r="F72" t="n">
-        <v>98.333375</v>
+        <v>66.667</v>
       </c>
       <c r="G72" t="n">
-        <v>8.345865261813538</v>
+        <v>2.7</v>
       </c>
       <c r="H72" t="n">
-        <v>163.0530332056194</v>
+        <v>144.6</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2044810882351071</v>
+        <v>0.634699263178097</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1962381816595454</v>
+        <v>1.181562539258671</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2783230751139101</v>
+        <v>0.981618535770336</v>
       </c>
       <c r="L72" t="n">
-        <v>0.257188904098413</v>
+        <v>0.951748469681688</v>
       </c>
       <c r="M72" t="n">
-        <v>0.2131079538446766</v>
+        <v>0.457439724988416</v>
       </c>
       <c r="N72" t="n">
-        <v>0.1155229898156531</v>
+        <v>0.314507286469152</v>
       </c>
       <c r="O72" t="n">
-        <v>0.1224779383240972</v>
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>0.08625346554887654</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.3771291387698634</v>
+        <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>0.08863620892853472</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>0.1092389367360641</v>
+        <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>0.1710135562899356</v>
+        <v>0.459252812223576</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
@@ -5442,65 +5442,65 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1328718868659302</v>
+        <v>2.632441890487853</v>
       </c>
       <c r="C73" t="n">
-        <v>34.93333333333333</v>
+        <v>54.6</v>
       </c>
       <c r="D73" t="n">
-        <v>3.093048474430054</v>
+        <v>20.76083333333333</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01147447154426551</v>
+        <v>1.033732400711008</v>
       </c>
       <c r="F73" t="n">
-        <v>90</v>
+        <v>66.667</v>
       </c>
       <c r="G73" t="n">
-        <v>6.703703703703703</v>
+        <v>2.7</v>
       </c>
       <c r="H73" t="n">
-        <v>147.1724137931035</v>
+        <v>144.6</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0226842860091008</v>
+        <v>0.634699263178097</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0361988327605824</v>
+        <v>1.181562539258671</v>
       </c>
       <c r="K73" t="n">
-        <v>0.02396367561117162</v>
+        <v>0.981618535770336</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0179017971531336</v>
+        <v>0.951748469681688</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0189823680193896</v>
+        <v>0.457439724988416</v>
       </c>
       <c r="N73" t="n">
-        <v>0.009351355421184001</v>
+        <v>0.314507286469152</v>
       </c>
       <c r="O73" t="n">
-        <v>0.0277930982052864</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>0.006902838148320001</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.0250559918129304</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>0.004199954687712001</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>0.007801697668333553</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>0.03155348481985728</v>
+        <v>0.459252812223576</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
@@ -5511,50 +5511,50 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Willamette Lowland basin-fill aquifers</t>
+          <t>San Joaquin River Basin</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3.373228689079502</v>
+        <v>1.88151853570632</v>
       </c>
       <c r="C74" t="n">
-        <v>37.62068965517241</v>
+        <v>90.91666666666667</v>
       </c>
       <c r="D74" t="n">
-        <v>10.15907224958949</v>
+        <v>52.56944444444444</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9944239315966225</v>
+        <v>1.230578228445636</v>
       </c>
       <c r="F74" t="n">
-        <v>96.667</v>
+        <v>40</v>
       </c>
       <c r="G74" t="n">
-        <v>4.206896551724138</v>
+        <v>2.25</v>
       </c>
       <c r="H74" t="n">
-        <v>110.3103448275862</v>
+        <v>180.1666666666667</v>
       </c>
       <c r="I74" t="n">
-        <v>1.335361321267344</v>
+        <v>0.379871629812864</v>
       </c>
       <c r="J74" t="n">
-        <v>0.80783594464896</v>
+        <v>0.579471418126944</v>
       </c>
       <c r="K74" t="n">
-        <v>0.609494395187232</v>
+        <v>0.3976352510516248</v>
       </c>
       <c r="L74" t="n">
-        <v>0.4233554325213696</v>
+        <v>0.642776560385904</v>
       </c>
       <c r="M74" t="n">
-        <v>0.009541644630336001</v>
+        <v>0.455644113292872</v>
       </c>
       <c r="N74" t="n">
-        <v>0.367230989490624</v>
+        <v>0.257379747464448</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>0.08523869203100161</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -5563,13 +5563,13 @@
         <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>0.007095069084096</v>
+        <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>0.488301527950272</v>
+        <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>1.309740856285772</v>
+        <v>0.09133882039296</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
@@ -5580,50 +5580,50 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Willamette Lowland basin-fill aquifers</t>
+          <t>San Joaquin River Basin</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3.373228689079502</v>
+        <v>1.88151853570632</v>
       </c>
       <c r="C75" t="n">
-        <v>37.62068965517241</v>
+        <v>90.91666666666667</v>
       </c>
       <c r="D75" t="n">
-        <v>10.15907224958949</v>
+        <v>52.56944444444444</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9944239315966225</v>
+        <v>1.230578228445636</v>
       </c>
       <c r="F75" t="n">
-        <v>96.667</v>
+        <v>40</v>
       </c>
       <c r="G75" t="n">
-        <v>4.206896551724138</v>
+        <v>2.25</v>
       </c>
       <c r="H75" t="n">
-        <v>110.3103448275862</v>
+        <v>180.1666666666667</v>
       </c>
       <c r="I75" t="n">
-        <v>1.335361321267344</v>
+        <v>0.379871629812864</v>
       </c>
       <c r="J75" t="n">
-        <v>0.80783594464896</v>
+        <v>0.579471418126944</v>
       </c>
       <c r="K75" t="n">
-        <v>0.609494395187232</v>
+        <v>0.3976352510516248</v>
       </c>
       <c r="L75" t="n">
-        <v>0.4233554325213696</v>
+        <v>0.642776560385904</v>
       </c>
       <c r="M75" t="n">
-        <v>0.009541644630336001</v>
+        <v>0.455644113292872</v>
       </c>
       <c r="N75" t="n">
-        <v>0.367230989490624</v>
+        <v>0.257379747464448</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>0.08523869203100161</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -5632,13 +5632,13 @@
         <v>0</v>
       </c>
       <c r="R75" t="n">
-        <v>0.007095069084096</v>
+        <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>0.488301527950272</v>
+        <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>1.309740856285772</v>
+        <v>0.09133882039296</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -5649,67 +5649,1516 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
+          <t>San Joaquin River Basin</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1.88151853570632</v>
+      </c>
+      <c r="C76" t="n">
+        <v>90.91666666666667</v>
+      </c>
+      <c r="D76" t="n">
+        <v>52.56944444444444</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.230578228445636</v>
+      </c>
+      <c r="F76" t="n">
+        <v>40</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H76" t="n">
+        <v>180.1666666666667</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.379871629812864</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.579471418126944</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.3976352510516248</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.642776560385904</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.455644113292872</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.257379747464448</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.08523869203100161</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.09133882039296</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>8.846980280240256</v>
+      </c>
+      <c r="C77" t="n">
+        <v>45.54166666666666</v>
+      </c>
+      <c r="D77" t="n">
+        <v>20.83958333333333</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.155941436753533</v>
+      </c>
+      <c r="F77" t="n">
+        <v>100</v>
+      </c>
+      <c r="G77" t="n">
+        <v>17.93333333333333</v>
+      </c>
+      <c r="H77" t="n">
+        <v>225.5833333333333</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2.082280447404864</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2.805449548733204</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2.8946046931452</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2.138049493145735</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2.6858812168566</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2.35207656576648</v>
+      </c>
+      <c r="O77" t="n">
+        <v>3.24606206640576</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5.865664872110401</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1.3089179172384</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1.4281884751176</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1.11869666851824</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.406780939088</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1.158965584225129</v>
+      </c>
+      <c r="C78" t="n">
+        <v>37.37486065749613</v>
+      </c>
+      <c r="D78" t="n">
+        <v>6.745479760358426</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.3330126586434473</v>
+      </c>
+      <c r="F78" t="n">
+        <v>97.45490476190477</v>
+      </c>
+      <c r="G78" t="n">
+        <v>8.215131042101486</v>
+      </c>
+      <c r="H78" t="n">
+        <v>185.1423786667629</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.2331795075308261</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.1858097078675693</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.2600280724676508</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.3126574387918808</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.3152172902613735</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.2374529892836992</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.2944588955223551</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.3098517932749597</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.1575314937836263</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.1608746988696919</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.1282605381241665</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.1687878373656325</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.001737394847903232</v>
+      </c>
+      <c r="C79" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.029768102894278</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0001810379392041162</v>
+      </c>
+      <c r="F79" t="n">
+        <v>80</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2.066666666666667</v>
+      </c>
+      <c r="H79" t="n">
+        <v>150</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.0003380722572986182</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.0004324566935533824</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.0003291287945362864</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.00022615532705556</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.00026484180288048</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.0002659239420643938</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.0003818405406096</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.0002815443859365416</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.00033354979947072</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2.001641317400777</v>
+      </c>
+      <c r="C80" t="n">
+        <v>73</v>
+      </c>
+      <c r="D80" t="n">
+        <v>33.6287037037037</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.074511161406133</v>
+      </c>
+      <c r="F80" t="n">
+        <v>60</v>
+      </c>
+      <c r="G80" t="n">
+        <v>3.428571428571428</v>
+      </c>
+      <c r="H80" t="n">
+        <v>209.0555555555555</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.4124844818442399</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.4400655435021854</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5762930940764152</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.78639336792197</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.6119733587335551</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.5527548131619984</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.0354386467872864</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>9.78630218496e-05</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.0016269727382496</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.0066791512412352</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.07590500632209533</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1.472481977828305</v>
+      </c>
+      <c r="C81" t="n">
+        <v>66.94444444444444</v>
+      </c>
+      <c r="D81" t="n">
+        <v>28.47379062736205</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.7040173397404554</v>
+      </c>
+      <c r="F81" t="n">
+        <v>55</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3.047619047619047</v>
+      </c>
+      <c r="H81" t="n">
+        <v>206.3492063492063</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.231594880020032</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.3359790451068391</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.4459996012816124</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.5586830539086586</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.4126195624698542</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.4187469738560861</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.03395846858181087</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4.89315109248e-05</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.0008134863691248</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.0033395756206176</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.05943343645703487</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9433226382558336</v>
+      </c>
+      <c r="C82" t="n">
+        <v>60.88888888888889</v>
+      </c>
+      <c r="D82" t="n">
+        <v>23.3188775510204</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.3335235180747781</v>
+      </c>
+      <c r="F82" t="n">
+        <v>50</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="H82" t="n">
+        <v>203.6428571428571</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.05070527819582401</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.2318925467114928</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.3157061084868096</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.3309727398953472</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.2132657662061533</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.2847391345501737</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.03247829037633533</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.0429618665919744</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>11.39257313012603</v>
+      </c>
+      <c r="C83" t="n">
+        <v>49.68181818181818</v>
+      </c>
+      <c r="D83" t="n">
+        <v>14.77884615384615</v>
+      </c>
+      <c r="E83" t="n">
+        <v>4.377111850342302</v>
+      </c>
+      <c r="F83" t="n">
+        <v>100</v>
+      </c>
+      <c r="G83" t="n">
+        <v>18.43333333333333</v>
+      </c>
+      <c r="H83" t="n">
+        <v>175.8636363636364</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1.76734501021512</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.50121573343936</v>
+      </c>
+      <c r="K83" t="n">
+        <v>6.620107218052609</v>
+      </c>
+      <c r="L83" t="n">
+        <v>4.12207203282336</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5.20223513648832</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.422686701872064</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.5565959367696001</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.15100807954848</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.2591840969298</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.554027032446048</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.373378010550552</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.5372649682208</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2.0931914124224</v>
+      </c>
+      <c r="C84" t="n">
+        <v>38.62086921380025</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5.978842231549368</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.5619978230860496</v>
+      </c>
+      <c r="F84" t="n">
+        <v>94.62960000000001</v>
+      </c>
+      <c r="G84" t="n">
+        <v>7.840308012549391</v>
+      </c>
+      <c r="H84" t="n">
+        <v>160.6076434421262</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.415090648795333</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.4888375391631136</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.8999907328774099</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.591279678942157</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.6691970859760917</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.130782393275578</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.1906246381773413</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.04621537837636395</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.09655375092646136</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.1415472838759814</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.1614326947037607</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.3653437618231462</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.09343155587319904</v>
+      </c>
+      <c r="C85" t="n">
+        <v>36.26666666666667</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.978233538840507</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.005068533984799386</v>
+      </c>
+      <c r="F85" t="n">
+        <v>73.333</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2.615384615384615</v>
+      </c>
+      <c r="H85" t="n">
+        <v>140.8275862068965</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.009838260200449396</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01515407206047574</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.01421119559082445</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.01145988640559916</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.01162658808112388</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.006922628057226006</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.005408054503617494</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.005256083099225083</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.01703180508295542</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2.308209466222389</v>
+      </c>
+      <c r="C86" t="n">
+        <v>67.875</v>
+      </c>
+      <c r="D86" t="n">
+        <v>33.53757440476191</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.888744598444233</v>
+      </c>
+      <c r="F86" t="n">
+        <v>96.667</v>
+      </c>
+      <c r="G86" t="n">
+        <v>8.115384615384615</v>
+      </c>
+      <c r="H86" t="n">
+        <v>255.8928571428571</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.8585400578088066</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5621079275590701</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.8099172471514616</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.8367702404002451</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.264719474103168</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.1903925090083968</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.522730270663177</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.130708298557872</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.386803593860544</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.424236199718016</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.23104847814804</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.5544111448068058</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9007517648246273</v>
+      </c>
+      <c r="C87" t="n">
+        <v>43.03159662283225</v>
+      </c>
+      <c r="D87" t="n">
+        <v>12.32341437243948</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.2678225770905223</v>
+      </c>
+      <c r="F87" t="n">
+        <v>86.34916666666668</v>
+      </c>
+      <c r="G87" t="n">
+        <v>4.541545765324501</v>
+      </c>
+      <c r="H87" t="n">
+        <v>182.3542820857835</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.3105044727346787</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.260915213742697</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2872725023033455</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.2415732427076919</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.1064666081861788</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.07524395034727166</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.3544700951259696</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.07972760959080677</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.1561641116235712</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.1616629878807559</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.08957110876982183</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.2161745665254468</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.1856304244630368</v>
+      </c>
+      <c r="C88" t="n">
+        <v>37.55172413793103</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4.20090895946159</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.03420150321888259</v>
+      </c>
+      <c r="F88" t="n">
+        <v>53.333</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.916666666666667</v>
+      </c>
+      <c r="H88" t="n">
+        <v>158.8275862068965</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.032967605485584</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.037218530497176</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.05154934675927679</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.005888091814617601</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.0002935890655488</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.008098165058054401</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.0360299025442944</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.0274995091397376</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.0253395324432</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.0363968888762304</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.0144714943560096</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.0174161227813056</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2.183813332573824</v>
+      </c>
+      <c r="C89" t="n">
+        <v>47.56521739130435</v>
+      </c>
+      <c r="D89" t="n">
+        <v>15.38066666666667</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.5725547451764281</v>
+      </c>
+      <c r="F89" t="n">
+        <v>100</v>
+      </c>
+      <c r="G89" t="n">
+        <v>9.166666666666666</v>
+      </c>
+      <c r="H89" t="n">
+        <v>198.2068965517241</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.7394638667646719</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.46512119551296</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.61714868153904</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.272251431677664</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.5601545921095855</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.9960009048743039</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.9364879547120161</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.560999772752832</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.629320394881584</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.373032868643136</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.789958467621792</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0.5362893597358079</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.8739357167761062</v>
+      </c>
+      <c r="C90" t="n">
+        <v>42.68451726914321</v>
+      </c>
+      <c r="D90" t="n">
+        <v>9.107502600425613</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.2105783581221475</v>
+      </c>
+      <c r="F90" t="n">
+        <v>86</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5.412075101338219</v>
+      </c>
+      <c r="H90" t="n">
+        <v>172.4612717807763</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.2350244846658195</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.1690448111189664</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.217575875238254</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.09712900307365439</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.217049970241796</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.2518920578833862</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.272663964773282</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.2052445239192569</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.1895561826287791</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.1961846002596548</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.232245307602498</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.1578795112042159</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.2869898357754075</v>
+      </c>
+      <c r="C91" t="n">
+        <v>36.53333333333333</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3.508995141568671</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.02634457869116221</v>
+      </c>
+      <c r="F91" t="n">
+        <v>76.667</v>
+      </c>
+      <c r="G91" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="H91" t="n">
+        <v>147.28</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.01433326283764704</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.04135058072046223</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.02223154267357363</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.03098756131381747</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.05469866035491512</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.03538864489956012</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.01263452388337429</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.05800259752507564</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.01506307632309032</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.05413264270368889</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.05763550454753909</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.0202025975730768</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>4.526574154185393</v>
+      </c>
+      <c r="C92" t="n">
+        <v>40.11111111111111</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5.575092191758858</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.6674969736449845</v>
+      </c>
+      <c r="F92" t="n">
+        <v>100</v>
+      </c>
+      <c r="G92" t="n">
+        <v>12.26666666666667</v>
+      </c>
+      <c r="H92" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.8481347720106491</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.4908595100615626</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.130005284376414</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1.35772913819884</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.8063484849686425</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.4506673708692275</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.4546838323909718</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.4599317369376563</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1.767487727121981</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.3024415914002773</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.3809986856144974</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.6463478411023695</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.8904191651350203</v>
+      </c>
+      <c r="C93" t="n">
+        <v>36.7463492063492</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4.079485035068635</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.116530181186195</v>
+      </c>
+      <c r="F93" t="n">
+        <v>99</v>
+      </c>
+      <c r="G93" t="n">
+        <v>9.055132275132275</v>
+      </c>
+      <c r="H93" t="n">
+        <v>161.6075661375662</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.158917642774851</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.1425151324677443</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.2132675138658103</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.2239263020467333</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.1597520517864905</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.0977697265902695</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.09400455609900611</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.0761117536061128</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.2853015889409482</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.07391730446595607</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.08469005471128717</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.1396203939232713</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.07140493836737856</v>
+      </c>
+      <c r="C94" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2.950913477360845</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.006659266978879322</v>
+      </c>
+      <c r="F94" t="n">
+        <v>90</v>
+      </c>
+      <c r="G94" t="n">
+        <v>6.703703703703703</v>
+      </c>
+      <c r="H94" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.01293069544533312</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02010989363444427</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.01350854034379136</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.01041429364448806</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.01503157195797962</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.00155602204740864</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.005098663438364161</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5.749452533664e-05</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.0093856754392632</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.00852317018151552</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.004790569674934081</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.01370443467046464</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
           <t>Willamette Lowland basin-fill aquifers</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="B95" t="n">
         <v>3.373228689079502</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C95" t="n">
         <v>37.62068965517241</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D95" t="n">
         <v>10.15907224958949</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E95" t="n">
         <v>0.9944239315966225</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F95" t="n">
+        <v>100</v>
+      </c>
+      <c r="G95" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H95" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1.335361321267344</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.80783594464896</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.609494395187232</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.4233554325213696</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.01256380926561246</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.367230989490624</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.0045750962714688</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.0219671901858024</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.488301527950272</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.309740856285772</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1.827975440788543</v>
+      </c>
+      <c r="C96" t="n">
+        <v>37.02701149425287</v>
+      </c>
+      <c r="D96" t="n">
+        <v>7.130584150842772</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.5126533091676253</v>
+      </c>
+      <c r="F96" t="n">
+        <v>98.3335</v>
+      </c>
+      <c r="G96" t="n">
+        <v>6.50344827586207</v>
+      </c>
+      <c r="H96" t="n">
+        <v>112.7551724137931</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.703402928956504</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.4339913901468415</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.322811080376688</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.2278373477436</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.01105272694797423</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.195511968338904</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.0022875481357344</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.0145311296349492</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.2740073262377171</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.6936377768816956</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.282722192497584</v>
+      </c>
+      <c r="C97" t="n">
+        <v>36.43333333333333</v>
+      </c>
+      <c r="D97" t="n">
+        <v>4.102096052096052</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.03088268673862808</v>
+      </c>
+      <c r="F97" t="n">
         <v>96.667</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G97" t="n">
         <v>4.206896551724138</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H97" t="n">
         <v>110.3103448275862</v>
       </c>
-      <c r="I76" t="n">
-        <v>1.335361321267344</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.80783594464896</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.609494395187232</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0.4233554325213696</v>
-      </c>
-      <c r="M76" t="n">
+      <c r="I97" t="n">
+        <v>0.071444536645664</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.0601468356447229</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.036127765566144</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.0323192629658304</v>
+      </c>
+      <c r="M97" t="n">
         <v>0.009541644630336001</v>
       </c>
-      <c r="N76" t="n">
-        <v>0.367230989490624</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" t="n">
+      <c r="N97" t="n">
+        <v>0.023792947187184</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
         <v>0.007095069084096</v>
       </c>
-      <c r="S76" t="n">
-        <v>0.488301527950272</v>
-      </c>
-      <c r="T76" t="n">
-        <v>1.309740856285772</v>
-      </c>
-      <c r="U76" t="inlineStr">
+      <c r="S97" t="n">
+        <v>0.05971312452516218</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.07753469747761921</v>
+      </c>
+      <c r="U97" t="inlineStr">
         <is>
           <t>min</t>
         </is>
